--- a/edit/Analyse des signalements et des données Météo DSK_v9_pour_tableaux.xlsx
+++ b/edit/Analyse des signalements et des données Météo DSK_v9_pour_tableaux.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="France" sheetId="1" r:id="rId1"/>
     <sheet name="IdF" sheetId="2" r:id="rId2"/>
     <sheet name="AL" sheetId="3" r:id="rId3"/>
+    <sheet name="RA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="125">
   <si>
     <t>Median</t>
   </si>
@@ -596,6 +597,42 @@
   <si>
     <t>sources : results_AL.txt</t>
   </si>
+  <si>
+    <t>moy_1erQ</t>
+  </si>
+  <si>
+    <t>1erQ_IC_bas</t>
+  </si>
+  <si>
+    <t>1erQ_IC_haut</t>
+  </si>
+  <si>
+    <t>moy_2èmeQ</t>
+  </si>
+  <si>
+    <t>2èmeQ_IC_bas</t>
+  </si>
+  <si>
+    <t>2èmeQ_IC_haut</t>
+  </si>
+  <si>
+    <t>moy_3èmeQ</t>
+  </si>
+  <si>
+    <t>3èmeQ_IC_bas</t>
+  </si>
+  <si>
+    <t>3èmeQ_IC_haut</t>
+  </si>
+  <si>
+    <t>1st quartile</t>
+  </si>
+  <si>
+    <t>3rd quartile</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
 </sst>
 </file>
 
@@ -936,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -986,6 +1023,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1275,10 +1316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH126"/>
+  <dimension ref="A1:AH129"/>
   <sheetViews>
-    <sheetView topLeftCell="L37" workbookViewId="0">
-      <selection activeCell="P58" sqref="P58"/>
+    <sheetView topLeftCell="K55" workbookViewId="0">
+      <selection activeCell="Q65" sqref="Q65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1573,7 +1614,7 @@
       <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="39" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -1638,7 +1679,7 @@
       <c r="J17" s="1">
         <v>1135</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="7" t="s">
         <v>31</v>
       </c>
@@ -1671,7 +1712,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -1709,7 +1750,7 @@
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1769,7 +1810,7 @@
       <c r="J20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -1834,7 +1875,7 @@
       <c r="J21" s="1">
         <v>6</v>
       </c>
-      <c r="M21" s="38"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1867,7 +1908,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="4" t="s">
@@ -1905,7 +1946,7 @@
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="38"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="7" t="s">
         <v>31</v>
       </c>
@@ -1965,7 +2006,7 @@
       <c r="J24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -2030,7 +2071,7 @@
       <c r="J25" s="1">
         <v>1100</v>
       </c>
-      <c r="M25" s="38"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="7" t="s">
         <v>31</v>
       </c>
@@ -2063,7 +2104,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -2101,7 +2142,7 @@
       <c r="C27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="7" t="s">
         <v>31</v>
       </c>
@@ -2161,7 +2202,7 @@
       <c r="J28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N28" s="4" t="s">
@@ -2226,7 +2267,7 @@
       <c r="J29" s="1">
         <v>6</v>
       </c>
-      <c r="M29" s="38"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="7" t="s">
         <v>31</v>
       </c>
@@ -2259,7 +2300,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N30" s="4" t="s">
@@ -2297,7 +2338,7 @@
       <c r="C31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="38"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="7" t="s">
         <v>31</v>
       </c>
@@ -2357,7 +2398,7 @@
       <c r="J32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -2422,7 +2463,7 @@
       <c r="J33" s="1">
         <v>1099</v>
       </c>
-      <c r="M33" s="38"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="7" t="s">
         <v>31</v>
       </c>
@@ -2455,7 +2496,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -2520,7 +2561,7 @@
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="7" t="s">
         <v>31</v>
       </c>
@@ -2736,7 +2777,7 @@
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="41" t="s">
         <v>35</v>
       </c>
       <c r="N39" s="24" t="s">
@@ -2773,11 +2814,11 @@
         <v>32</v>
       </c>
       <c r="Z39">
-        <f>C107</f>
+        <f>C110</f>
         <v>11.542358</v>
       </c>
       <c r="AA39">
-        <f t="shared" ref="AA39:AH39" si="0">D107</f>
+        <f t="shared" ref="AA39:AH39" si="0">D110</f>
         <v>8.6869999999999994</v>
       </c>
       <c r="AB39">
@@ -2837,7 +2878,7 @@
       <c r="J40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="25" t="s">
         <v>31</v>
       </c>
@@ -2869,39 +2910,39 @@
         <v>31</v>
       </c>
       <c r="Z40">
-        <f t="shared" ref="Z40:Z58" si="1">C108</f>
+        <f t="shared" ref="Z40:Z58" si="1">C111</f>
         <v>3.3350724999999999</v>
       </c>
       <c r="AA40">
-        <f t="shared" ref="AA40:AA58" si="2">D108</f>
+        <f t="shared" ref="AA40:AA58" si="2">D111</f>
         <v>0.93899999999999995</v>
       </c>
       <c r="AB40">
-        <f t="shared" ref="AB40:AB58" si="3">E108</f>
+        <f t="shared" ref="AB40:AB58" si="3">E111</f>
         <v>5.7694999999999999</v>
       </c>
       <c r="AC40">
-        <f t="shared" ref="AC40:AC58" si="4">F108</f>
+        <f t="shared" ref="AC40:AC58" si="4">F111</f>
         <v>11.711537</v>
       </c>
       <c r="AD40">
-        <f t="shared" ref="AD40:AD58" si="5">G108</f>
+        <f t="shared" ref="AD40:AD58" si="5">G111</f>
         <v>9.8389000000000006</v>
       </c>
       <c r="AE40">
-        <f t="shared" ref="AE40:AE58" si="6">H108</f>
+        <f t="shared" ref="AE40:AE58" si="6">H111</f>
         <v>13.4305</v>
       </c>
       <c r="AF40">
-        <f t="shared" ref="AF40:AF58" si="7">I108</f>
+        <f t="shared" ref="AF40:AF58" si="7">I111</f>
         <v>20.670808000000001</v>
       </c>
       <c r="AG40">
-        <f t="shared" ref="AG40:AG58" si="8">J108</f>
+        <f t="shared" ref="AG40:AG58" si="8">J111</f>
         <v>17.790500000000002</v>
       </c>
       <c r="AH40">
-        <f t="shared" ref="AH40:AH58" si="9">K108</f>
+        <f t="shared" ref="AH40:AH58" si="9">K111</f>
         <v>23.5715</v>
       </c>
     </row>
@@ -2936,7 +2977,7 @@
       <c r="J41" s="1">
         <v>77533</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -3010,7 +3051,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M42" s="38"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="7" t="s">
         <v>31</v>
       </c>
@@ -3082,7 +3123,7 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -3183,7 +3224,7 @@
       <c r="J44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="38"/>
+      <c r="M44" s="40"/>
       <c r="N44" s="7" t="s">
         <v>31</v>
       </c>
@@ -3282,7 +3323,7 @@
       <c r="J45">
         <v>8</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -3356,7 +3397,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M46" s="38"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -3428,7 +3469,7 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="37" t="s">
+      <c r="M47" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -3529,7 +3570,7 @@
       <c r="J48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="38"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="7" t="s">
         <v>31</v>
       </c>
@@ -3628,7 +3669,7 @@
       <c r="J49">
         <v>647</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N49" s="4" t="s">
@@ -3702,7 +3743,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M50" s="38"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="7" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3815,7 @@
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N51" s="4" t="s">
@@ -3875,7 +3916,7 @@
       <c r="J52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="38"/>
+      <c r="M52" s="40"/>
       <c r="N52" s="7" t="s">
         <v>31</v>
       </c>
@@ -3974,7 +4015,7 @@
       <c r="J53" s="1">
         <v>537</v>
       </c>
-      <c r="M53" s="37" t="s">
+      <c r="M53" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N53" s="4" t="s">
@@ -4048,7 +4089,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M54" s="38"/>
+      <c r="M54" s="40"/>
       <c r="N54" s="7" t="s">
         <v>31</v>
       </c>
@@ -4120,7 +4161,7 @@
       <c r="C55" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="37" t="s">
+      <c r="M55" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N55" s="4" t="s">
@@ -4221,7 +4262,7 @@
       <c r="J56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M56" s="38"/>
+      <c r="M56" s="40"/>
       <c r="N56" s="7" t="s">
         <v>31</v>
       </c>
@@ -4320,7 +4361,7 @@
       <c r="J57" s="1">
         <v>47796</v>
       </c>
-      <c r="M57" s="37" t="s">
+      <c r="M57" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -4394,7 +4435,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M58" s="38"/>
+      <c r="M58" s="40"/>
       <c r="N58" s="7" t="s">
         <v>31</v>
       </c>
@@ -4463,1198 +4504,2615 @@
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C59" s="1" t="s">
+      <c r="M59" s="37"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+      <c r="R59" s="38"/>
+      <c r="S59" s="38"/>
+      <c r="T59" s="38"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="M60" s="37"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="38"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="M61" s="37"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+      <c r="R61" s="38"/>
+      <c r="S61" s="38"/>
+      <c r="T61" s="38"/>
+      <c r="Z61" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C62" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B60" t="s">
+      <c r="Z62" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="3">
+      <c r="Y63" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" s="3">
         <v>14657</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C64" s="3">
         <v>11730</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D64" s="1">
         <v>0</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E64" s="1">
         <v>40</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F64" s="1">
         <v>67</v>
       </c>
-      <c r="G61" s="1">
+      <c r="G64" s="1">
         <v>59.85</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H64" s="1">
         <v>82</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I64" s="1">
         <v>100</v>
       </c>
-      <c r="J61" s="1">
+      <c r="J64" s="1">
         <v>2927</v>
       </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C63" s="1" t="s">
+      <c r="Y64" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M65" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N65" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q65" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="R65" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="T65" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="X65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="B64" t="s">
+      <c r="M66" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N66" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z66,1)," °C")</f>
+        <v>14.8 °C</v>
+      </c>
+      <c r="P66" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA66,1)," °C ; ", ROUND(AB66,1)," °C]")</f>
+        <v>[12.8 °C ; 16.7 °C]</v>
+      </c>
+      <c r="Q66" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC66,1)," °C")</f>
+        <v>18 °C</v>
+      </c>
+      <c r="R66" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD66,1)," °C ; ", ROUND(AE66,1)," °C]")</f>
+        <v>[16.5 °C ; 19.5 °C]</v>
+      </c>
+      <c r="S66" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF66,1)," °C")</f>
+        <v>20.8 °C</v>
+      </c>
+      <c r="T66" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG66,1)," °C ; ", ROUND(AH66,1)," °C]")</f>
+        <v>[19.2 °C ; 22.3 °C]</v>
+      </c>
+      <c r="X66" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z66">
+        <v>14.7794875</v>
+      </c>
+      <c r="AA66">
+        <v>12.76</v>
+      </c>
+      <c r="AB66">
+        <v>16.657499999999999</v>
+      </c>
+      <c r="AC66">
+        <v>17.990390000000001</v>
+      </c>
+      <c r="AD66">
+        <v>16.47</v>
+      </c>
+      <c r="AE66">
+        <v>19.495000000000001</v>
+      </c>
+      <c r="AF66">
+        <v>20.798507499999999</v>
+      </c>
+      <c r="AG66">
+        <v>19.215</v>
+      </c>
+      <c r="AH66">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J67" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="3">
+      <c r="M67" s="40"/>
+      <c r="N67" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O67" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z67,1)," °C")</f>
+        <v>6.8 °C</v>
+      </c>
+      <c r="P67" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA67,1)," °C ; ", ROUND(AB67,1)," °C]")</f>
+        <v>[4.6 °C ; 9.2 °C]</v>
+      </c>
+      <c r="Q67" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC67,1)," °C")</f>
+        <v>11.3 °C</v>
+      </c>
+      <c r="R67" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD67,1)," °C ; ", ROUND(AE67,1)," °C]")</f>
+        <v>[8.9 °C ; 14.1 °C]</v>
+      </c>
+      <c r="S67" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF67,1)," °C")</f>
+        <v>16.5 °C</v>
+      </c>
+      <c r="T67" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG67,1)," °C ; ", ROUND(AH67,1)," °C]")</f>
+        <v>[13.6 °C ; 19.2 °C]</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z67">
+        <v>6.8135237499999999</v>
+      </c>
+      <c r="AA67">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AB67">
+        <v>9.1925000000000008</v>
+      </c>
+      <c r="AC67">
+        <v>11.253505000000001</v>
+      </c>
+      <c r="AD67">
+        <v>8.94</v>
+      </c>
+      <c r="AE67">
+        <v>14.067500000000001</v>
+      </c>
+      <c r="AF67">
+        <v>16.536691250000001</v>
+      </c>
+      <c r="AG67">
+        <v>13.61875</v>
+      </c>
+      <c r="AH67">
+        <v>19.182500000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="3">
         <v>693063</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C68" s="3">
         <v>607295</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D68" s="1">
         <v>0</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E68" s="1">
         <v>43</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F68" s="1">
         <v>73</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G68" s="1">
         <v>64.06</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H68" s="1">
         <v>89</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I68" s="1">
         <v>100</v>
       </c>
-      <c r="J65" s="1">
+      <c r="J68" s="1">
         <v>85768</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C67" s="1" t="s">
+      <c r="M68" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z68,1)," °C")</f>
+        <v>19.9 °C</v>
+      </c>
+      <c r="P68" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA68,1)," °C ; ", ROUND(AB68,1)," °C]")</f>
+        <v>[17.6 °C ; 21.8 °C]</v>
+      </c>
+      <c r="Q68" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC68,1)," °C")</f>
+        <v>23.6 °C</v>
+      </c>
+      <c r="R68" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD68,1)," °C ; ", ROUND(AE68,1)," °C]")</f>
+        <v>[21.7 °C ; 25.2 °C]</v>
+      </c>
+      <c r="S68" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF68,1)," °C")</f>
+        <v>26.9 °C</v>
+      </c>
+      <c r="T68" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG68,1)," °C ; ", ROUND(AH68,1)," °C]")</f>
+        <v>[25.1 °C ; 28.6 °C]</v>
+      </c>
+      <c r="X68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z68">
+        <v>19.872264999999999</v>
+      </c>
+      <c r="AA68">
+        <v>17.635000000000002</v>
+      </c>
+      <c r="AB68">
+        <v>21.807500000000001</v>
+      </c>
+      <c r="AC68">
+        <v>23.558185000000002</v>
+      </c>
+      <c r="AD68">
+        <v>21.72</v>
+      </c>
+      <c r="AE68">
+        <v>25.19</v>
+      </c>
+      <c r="AF68">
+        <v>26.884332499999999</v>
+      </c>
+      <c r="AG68">
+        <v>25.052499999999998</v>
+      </c>
+      <c r="AH68">
+        <v>28.574999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M69" s="40"/>
+      <c r="N69" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z69,1)," °C")</f>
+        <v>10.4 °C</v>
+      </c>
+      <c r="P69" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA69,1)," °C ; ", ROUND(AB69,1)," °C]")</f>
+        <v>[8 °C ; 13 °C]</v>
+      </c>
+      <c r="Q69" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC69,1)," °C")</f>
+        <v>15.6 °C</v>
+      </c>
+      <c r="R69" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD69,1)," °C ; ", ROUND(AE69,1)," °C]")</f>
+        <v>[12.7 °C ; 19.1 °C]</v>
+      </c>
+      <c r="S69" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF69,1)," °C")</f>
+        <v>22.1 °C</v>
+      </c>
+      <c r="T69" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG69,1)," °C ; ", ROUND(AH69,1)," °C]")</f>
+        <v>[18.3 °C ; 25.5 °C]</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z69">
+        <v>10.408844999999999</v>
+      </c>
+      <c r="AA69">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="AB69">
+        <v>12.96</v>
+      </c>
+      <c r="AC69">
+        <v>15.599069999999999</v>
+      </c>
+      <c r="AD69">
+        <v>12.74</v>
+      </c>
+      <c r="AE69">
+        <v>19.13</v>
+      </c>
+      <c r="AF69">
+        <v>22.12584</v>
+      </c>
+      <c r="AG69">
+        <v>18.32</v>
+      </c>
+      <c r="AH69">
+        <v>25.537500000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C70" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B68" t="s">
+      <c r="M70" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z70,1)," %")</f>
+        <v>64.3 %</v>
+      </c>
+      <c r="P70" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA70,1)," % ; ", ROUND(AB70,1)," %]")</f>
+        <v>[60 % ; 68.3 %]</v>
+      </c>
+      <c r="Q70" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC70,1)," %")</f>
+        <v>71.8 %</v>
+      </c>
+      <c r="R70" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD70,1)," % ; ", ROUND(AE70,1)," %]")</f>
+        <v>[68 % ; 75.5 %]</v>
+      </c>
+      <c r="S70" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF70,1)," %")</f>
+        <v>79.1 %</v>
+      </c>
+      <c r="T70" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG70,1)," % ; ", ROUND(AH70,1)," %]")</f>
+        <v>[75 % ; 83 %]</v>
+      </c>
+      <c r="X70" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z70">
+        <v>64.306250000000006</v>
+      </c>
+      <c r="AA70">
+        <v>60</v>
+      </c>
+      <c r="AB70">
+        <v>68.25</v>
+      </c>
+      <c r="AC70">
+        <v>71.784999999999997</v>
+      </c>
+      <c r="AD70">
+        <v>68</v>
+      </c>
+      <c r="AE70">
+        <v>75.5</v>
+      </c>
+      <c r="AF70">
+        <v>79.063000000000002</v>
+      </c>
+      <c r="AG70">
+        <v>75</v>
+      </c>
+      <c r="AH70">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B69" s="3">
+      <c r="M71" s="40"/>
+      <c r="N71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O71" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z71,1)," %")</f>
+        <v>66.5 %</v>
+      </c>
+      <c r="P71" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA71,1)," % ; ", ROUND(AB71,1)," %]")</f>
+        <v>[60.3 % ; 73 %]</v>
+      </c>
+      <c r="Q71" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC71,1)," %")</f>
+        <v>76.4 %</v>
+      </c>
+      <c r="R71" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD71,1)," % ; ", ROUND(AE71,1)," %]")</f>
+        <v>[71.5 % ; 81 %]</v>
+      </c>
+      <c r="S71" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF71,1)," %")</f>
+        <v>84.3 %</v>
+      </c>
+      <c r="T71" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG71,1)," °C ; ", ROUND(AH71,1)," °C]")</f>
+        <v>[80 °C ; 88 °C]</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z71">
+        <v>66.547499999999999</v>
+      </c>
+      <c r="AA71">
+        <v>60.25</v>
+      </c>
+      <c r="AB71">
+        <v>73</v>
+      </c>
+      <c r="AC71">
+        <v>76.350499999999997</v>
+      </c>
+      <c r="AD71">
+        <v>71.5</v>
+      </c>
+      <c r="AE71">
+        <v>81</v>
+      </c>
+      <c r="AF71">
+        <v>84.26</v>
+      </c>
+      <c r="AG71">
+        <v>80</v>
+      </c>
+      <c r="AH71">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="3">
         <v>14657</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C72" s="3">
         <v>9092</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D72" s="1">
         <v>0</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E72" s="1">
         <v>4.367</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F72" s="1">
         <v>6.26</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G72" s="1">
         <v>7.032</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H72" s="1">
         <v>8.9700000000000006</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I72" s="1">
         <v>49.17</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J72" s="1">
         <v>5565</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
+      <c r="M72" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z72,1)," °C")</f>
+        <v>9.3 °C</v>
+      </c>
+      <c r="P72" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA72,1)," °C ; ", ROUND(AB72,1)," °C]")</f>
+        <v>[7.3 °C ; 10.9 °C]</v>
+      </c>
+      <c r="Q72" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC72,1)," °C")</f>
+        <v>12.2 °C</v>
+      </c>
+      <c r="R72" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD72,1)," °C ; ", ROUND(AE72,1)," °C]")</f>
+        <v>[10.7 °C ; 13.5 °C]</v>
+      </c>
+      <c r="S72" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF72,1)," °C")</f>
+        <v>14.6 °C</v>
+      </c>
+      <c r="T72" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG72,1)," °C ; ", ROUND(AH72,1)," °C]")</f>
+        <v>[13.4 °C ; 15.7 °C]</v>
+      </c>
+      <c r="X72" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z72">
+        <v>9.2778899999999993</v>
+      </c>
+      <c r="AA72">
+        <v>7.29</v>
+      </c>
+      <c r="AB72">
+        <v>10.932499999999999</v>
+      </c>
+      <c r="AC72">
+        <v>12.204829999999999</v>
+      </c>
+      <c r="AD72">
+        <v>10.675000000000001</v>
+      </c>
+      <c r="AE72">
+        <v>13.48</v>
+      </c>
+      <c r="AF72">
+        <v>14.590897500000001</v>
+      </c>
+      <c r="AG72">
+        <v>13.397500000000001</v>
+      </c>
+      <c r="AH72">
+        <v>15.7125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M73" s="40"/>
+      <c r="N73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z73,1)," °C")</f>
+        <v>2.4 °C</v>
+      </c>
+      <c r="P73" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA73,1)," °C ; ", ROUND(AB73,1)," °C]")</f>
+        <v>[-0.1 °C ; 4.6 °C]</v>
+      </c>
+      <c r="Q73" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC73,1)," °C")</f>
+        <v>6.7 °C</v>
+      </c>
+      <c r="R73" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD73,1)," °C ; ", ROUND(AE73,1)," °C]")</f>
+        <v>[4.4 °C ; 9.2 °C]</v>
+      </c>
+      <c r="S73" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF73,1)," °C")</f>
+        <v>11 °C</v>
+      </c>
+      <c r="T73" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG73,1)," °C ; ", ROUND(AH73,1)," °C]")</f>
+        <v>[8.9 °C ; 13.1 °C]</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z73">
+        <v>2.387575</v>
+      </c>
+      <c r="AA73">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="AB73">
+        <v>4.625</v>
+      </c>
+      <c r="AC73">
+        <v>6.7493850000000002</v>
+      </c>
+      <c r="AD73">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="AE73">
+        <v>9.15</v>
+      </c>
+      <c r="AF73">
+        <v>10.954800000000001</v>
+      </c>
+      <c r="AG73">
+        <v>8.8524999999999991</v>
+      </c>
+      <c r="AH73">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C74" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B72" t="s">
+      <c r="M74" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z74,1)," hPa")</f>
+        <v>1014.1 hPa</v>
+      </c>
+      <c r="P74" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA74,1)," hPa ; ", ROUND(AB74,1)," hPa]")</f>
+        <v>[1011.7 hPa ; 1016.3 hPa]</v>
+      </c>
+      <c r="Q74" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC74,1)," hPa")</f>
+        <v>1017.2 hPa</v>
+      </c>
+      <c r="R74" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD74,1)," hPa ; ", ROUND(AE74,1)," hPa]")</f>
+        <v>[1015.2 hPa ; 1019.2 hPa]</v>
+      </c>
+      <c r="S74" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF74,1)," hPa")</f>
+        <v>1020.5 hPa</v>
+      </c>
+      <c r="T74" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG74,1)," hPa ; ", ROUND(AH74,1)," hPa]")</f>
+        <v>[1018.3 hPa ; 1022.7 hPa]</v>
+      </c>
+      <c r="X74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z74">
+        <v>1014.1091750000001</v>
+      </c>
+      <c r="AA74">
+        <v>1011.7</v>
+      </c>
+      <c r="AB74">
+        <v>1016.3</v>
+      </c>
+      <c r="AC74">
+        <v>1017.18225</v>
+      </c>
+      <c r="AD74">
+        <v>1015.2</v>
+      </c>
+      <c r="AE74">
+        <v>1019.2</v>
+      </c>
+      <c r="AF74">
+        <v>1020.527725</v>
+      </c>
+      <c r="AG74">
+        <v>1018.325</v>
+      </c>
+      <c r="AH74">
+        <v>1022.65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>10</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="3">
+      <c r="M75" s="40"/>
+      <c r="N75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O75" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z75,1)," hPa")</f>
+        <v>1012.9 hPa</v>
+      </c>
+      <c r="P75" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA75,1)," hPa ; ", ROUND(AB75,1)," hPa]")</f>
+        <v>[1009 hPa ; 1016.2 hPa]</v>
+      </c>
+      <c r="Q75" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC75,1)," hPa")</f>
+        <v>1018.1 hPa</v>
+      </c>
+      <c r="R75" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD75,1)," hPa ; ", ROUND(AE75,1)," hPa]")</f>
+        <v>[1015.4 hPa ; 1020.8 hPa]</v>
+      </c>
+      <c r="S75" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF75,1)," hPa")</f>
+        <v>1022.9 hPa</v>
+      </c>
+      <c r="T75" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG75,1)," hPa ; ", ROUND(AH75,1)," hPa]")</f>
+        <v>[1020 hPa ; 1026.1 hPa]</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z75">
+        <v>1012.9449499999999</v>
+      </c>
+      <c r="AA75">
+        <v>1009</v>
+      </c>
+      <c r="AB75">
+        <v>1016.2</v>
+      </c>
+      <c r="AC75">
+        <v>1018.0602</v>
+      </c>
+      <c r="AD75">
+        <v>1015.4</v>
+      </c>
+      <c r="AE75">
+        <v>1020.8</v>
+      </c>
+      <c r="AF75">
+        <v>1022.864075</v>
+      </c>
+      <c r="AG75">
+        <v>1019.975</v>
+      </c>
+      <c r="AH75">
+        <v>1026.0999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="3">
         <v>693063</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C76" s="3">
         <v>561114</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D76" s="1">
         <v>0</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E76" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F76" s="1">
         <v>8.1</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G76" s="1">
         <v>8.91</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H76" s="1">
         <v>12.29</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I76" s="1">
         <v>58.71</v>
       </c>
-      <c r="J73" s="1">
+      <c r="J76" s="1">
         <v>131949</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C75" s="1" t="s">
+      <c r="M76" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O76" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z76,1)," m/s")</f>
+        <v>1.8 m/s</v>
+      </c>
+      <c r="P76" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA76,1)," m/s ; ", ROUND(AB76,1)," m/s]")</f>
+        <v>[1.5 m/s ; 2.2 m/s]</v>
+      </c>
+      <c r="Q76" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC76,1)," m/s")</f>
+        <v>2.5 m/s</v>
+      </c>
+      <c r="R76" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD76,1)," m/s ; ", ROUND(AE76,1)," m/s]")</f>
+        <v>[2.1 m/s ; 2.8 m/s]</v>
+      </c>
+      <c r="S76" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF76,1)," m/s")</f>
+        <v>3.3 m/s</v>
+      </c>
+      <c r="T76" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG76,1)," m/s ; ", ROUND(AH76,1)," m/s]")</f>
+        <v>[2.8 m/s ; 3.9 m/s]</v>
+      </c>
+      <c r="X76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z76">
+        <v>1.8284849999999999</v>
+      </c>
+      <c r="AA76">
+        <v>1.51</v>
+      </c>
+      <c r="AB76">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="AC76">
+        <v>2.4647000000000001</v>
+      </c>
+      <c r="AD76">
+        <v>2.085</v>
+      </c>
+      <c r="AE76">
+        <v>2.84</v>
+      </c>
+      <c r="AF76">
+        <v>3.2989099999999998</v>
+      </c>
+      <c r="AG76">
+        <v>2.7675000000000001</v>
+      </c>
+      <c r="AH76">
+        <v>3.8824999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M77" s="40"/>
+      <c r="N77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O77" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z77,1)," m/s")</f>
+        <v>1.9 m/s</v>
+      </c>
+      <c r="P77" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA77,1)," m/s ; ", ROUND(AB77,1)," m/s]")</f>
+        <v>[1.5 m/s ; 2.3 m/s]</v>
+      </c>
+      <c r="Q77" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC77,1)," m/s")</f>
+        <v>2.8 m/s</v>
+      </c>
+      <c r="R77" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD77,1)," m/s ; ", ROUND(AE77,1)," m/s]")</f>
+        <v>[2.2 m/s ; 3.4 m/s]</v>
+      </c>
+      <c r="S77" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF77,1)," m/s")</f>
+        <v>4.1 m/s</v>
+      </c>
+      <c r="T77" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG77,1)," m/s ; ", ROUND(AH77,1)," m/s]")</f>
+        <v>[3.3 m/s ; 5.1 m/s]</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z77">
+        <v>1.863135</v>
+      </c>
+      <c r="AA77">
+        <v>1.49</v>
+      </c>
+      <c r="AB77">
+        <v>2.33</v>
+      </c>
+      <c r="AC77">
+        <v>2.7749100000000002</v>
+      </c>
+      <c r="AD77">
+        <v>2.2149999999999999</v>
+      </c>
+      <c r="AE77">
+        <v>3.43</v>
+      </c>
+      <c r="AF77">
+        <v>4.1245675000000004</v>
+      </c>
+      <c r="AG77">
+        <v>3.3075000000000001</v>
+      </c>
+      <c r="AH77">
+        <v>5.0774999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C78" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B76" t="s">
+      <c r="M78" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O78" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z78,1)," km")</f>
+        <v>9.9 km</v>
+      </c>
+      <c r="P78" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA78,1)," km ; ", ROUND(AB78,1)," km]")</f>
+        <v>[9.5 km ; 10 km]</v>
+      </c>
+      <c r="Q78" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC78,1)," km")</f>
+        <v>10.2 km</v>
+      </c>
+      <c r="R78" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD78,1)," km ; ", ROUND(AE78,1)," km]")</f>
+        <v>[10 km ; 13.5 km]</v>
+      </c>
+      <c r="S78" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF78,1)," km")</f>
+        <v>15.5 km</v>
+      </c>
+      <c r="T78" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG78,1)," km ; ", ROUND(AH78,1)," km]")</f>
+        <v>[10.5 km ; 16.1 km]</v>
+      </c>
+      <c r="X78" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z78">
+        <v>9.8737787499999996</v>
+      </c>
+      <c r="AA78">
+        <v>9.5009999999999994</v>
+      </c>
+      <c r="AB78">
+        <v>10.003</v>
+      </c>
+      <c r="AC78">
+        <v>10.1894255</v>
+      </c>
+      <c r="AD78">
+        <v>10.003</v>
+      </c>
+      <c r="AE78">
+        <v>13.494999999999999</v>
+      </c>
+      <c r="AF78">
+        <v>15.5225475</v>
+      </c>
+      <c r="AG78">
+        <v>10.499000000000001</v>
+      </c>
+      <c r="AH78">
+        <v>16.093</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
         <v>10</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C79" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J79" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="3">
+      <c r="M79" s="40"/>
+      <c r="N79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O79" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z79,1)," km")</f>
+        <v>10 km</v>
+      </c>
+      <c r="P79" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA79,1)," km ; ", ROUND(AB79,1)," km]")</f>
+        <v>[9.5 km ; 10.6 km]</v>
+      </c>
+      <c r="Q79" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC79,2)," km")</f>
+        <v>14.26 km</v>
+      </c>
+      <c r="R79" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD79,1)," km ; ", ROUND(AE79,1)," km]")</f>
+        <v>[10 km ; 16.1 km]</v>
+      </c>
+      <c r="S79" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF79,1)," km")</f>
+        <v>16.1 km</v>
+      </c>
+      <c r="T79" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG79,1)," km ; ", ROUND(AH79,1)," km]")</f>
+        <v>[16.1 km ; 16.1 km]</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z79">
+        <v>9.9964467500000005</v>
+      </c>
+      <c r="AA79">
+        <v>9.5429999999999993</v>
+      </c>
+      <c r="AB79">
+        <v>10.573499999999999</v>
+      </c>
+      <c r="AC79">
+        <v>14.255706999999999</v>
+      </c>
+      <c r="AD79">
+        <v>10.003</v>
+      </c>
+      <c r="AE79">
+        <v>16.093</v>
+      </c>
+      <c r="AF79">
+        <v>16.087719750000002</v>
+      </c>
+      <c r="AG79">
+        <v>16.051500000000001</v>
+      </c>
+      <c r="AH79">
+        <v>16.093</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="3">
         <v>14657</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C80" s="3">
         <v>13548</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D80" s="1">
         <v>0</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E80" s="1">
         <v>4</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F80" s="1">
         <v>6</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G80" s="1">
         <v>5.4779999999999998</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H80" s="1">
         <v>7</v>
       </c>
-      <c r="I77" s="1">
+      <c r="I80" s="1">
         <v>10</v>
       </c>
-      <c r="J77" s="1">
+      <c r="J80" s="1">
         <v>1109</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C79" s="1" t="s">
+      <c r="M80" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z80,1),"  %")</f>
+        <v>41.2  %</v>
+      </c>
+      <c r="P80" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA80,1),"  % ; ", ROUND(AB80,1),"  %]")</f>
+        <v>[22.5  % ; 58  %]</v>
+      </c>
+      <c r="Q80" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC80,1),"  %")</f>
+        <v>66.2  %</v>
+      </c>
+      <c r="R80" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD80,1),"  % ; ", ROUND(AE80,1),"  %]")</f>
+        <v>[51  % ; 76.5  %]</v>
+      </c>
+      <c r="S80" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF80,1),"  %")</f>
+        <v>81.7  %</v>
+      </c>
+      <c r="T80" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG80,1),"  % ; ", ROUND(AH80,1),"  %]")</f>
+        <v>[73.5  % ; 88  %]</v>
+      </c>
+      <c r="X80" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z80">
+        <v>41.158749999999998</v>
+      </c>
+      <c r="AA80">
+        <v>22.5</v>
+      </c>
+      <c r="AB80">
+        <v>58</v>
+      </c>
+      <c r="AC80">
+        <v>66.232500000000002</v>
+      </c>
+      <c r="AD80">
+        <v>51</v>
+      </c>
+      <c r="AE80">
+        <v>76.5</v>
+      </c>
+      <c r="AF80">
+        <v>81.682500000000005</v>
+      </c>
+      <c r="AG80">
+        <v>73.5</v>
+      </c>
+      <c r="AH80">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M81" s="40"/>
+      <c r="N81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O81" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z81,1),"  %")</f>
+        <v>44.1  %</v>
+      </c>
+      <c r="P81" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA81,1),"  % ; ", ROUND(AB81,1),"  %]")</f>
+        <v>[24.8  % ; 62.8  %]</v>
+      </c>
+      <c r="Q81" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC81,1),"  %")</f>
+        <v>72.4  %</v>
+      </c>
+      <c r="R81" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD81,1),"  % ; ", ROUND(AE81,1),"  %]")</f>
+        <v>[59  % ; 82  %]</v>
+      </c>
+      <c r="S81" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF81,1),"  %")</f>
+        <v>88.4  %</v>
+      </c>
+      <c r="T81" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG81,1),"  % ; ", ROUND(AH81,1),"  %]")</f>
+        <v>[81  % ; 94.5  %]</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z81">
+        <v>44.051749999999998</v>
+      </c>
+      <c r="AA81">
+        <v>24.75</v>
+      </c>
+      <c r="AB81">
+        <v>62.75</v>
+      </c>
+      <c r="AC81">
+        <v>72.424499999999995</v>
+      </c>
+      <c r="AD81">
+        <v>59</v>
+      </c>
+      <c r="AE81">
+        <v>82</v>
+      </c>
+      <c r="AF81">
+        <v>88.350999999999999</v>
+      </c>
+      <c r="AG81">
+        <v>81</v>
+      </c>
+      <c r="AH81">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="C82" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B80" t="s">
+      <c r="M82" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z82,1)," m/s")</f>
+        <v>4.4 m/s</v>
+      </c>
+      <c r="P82" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA82,1)," m/s ; ", ROUND(AB82,1)," m/s]")</f>
+        <v>[3.4 m/s ; 5.5 m/s]</v>
+      </c>
+      <c r="Q82" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC82,1)," m/s")</f>
+        <v>6.3 m/s</v>
+      </c>
+      <c r="R82" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD82,1)," m/s ; ", ROUND(AE82,1)," m/s]")</f>
+        <v>[5 m/s ; 7.8 m/s]</v>
+      </c>
+      <c r="S82" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF82,1)," m/s")</f>
+        <v>9 m/s</v>
+      </c>
+      <c r="T82" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG82,1)," m/s ; ", ROUND(AH82,1)," m/s]")</f>
+        <v>[7 m/s ; 11.3 m/s]</v>
+      </c>
+      <c r="X82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z82">
+        <v>4.4185825000000003</v>
+      </c>
+      <c r="AA82">
+        <v>3.41</v>
+      </c>
+      <c r="AB82">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="AC82">
+        <v>6.2792599999999998</v>
+      </c>
+      <c r="AD82">
+        <v>4.95</v>
+      </c>
+      <c r="AE82">
+        <v>7.8049999999999997</v>
+      </c>
+      <c r="AF82">
+        <v>8.9643575000000002</v>
+      </c>
+      <c r="AG82">
+        <v>6.9625000000000004</v>
+      </c>
+      <c r="AH82">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>10</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C83" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J83" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="3">
+      <c r="M83" s="40"/>
+      <c r="N83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O83" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z83,1)," m/s")</f>
+        <v>5 m/s</v>
+      </c>
+      <c r="P83" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA83,1)," m/s ; ", ROUND(AB83,1)," m/s]")</f>
+        <v>[3.7 m/s ; 6.7 m/s]</v>
+      </c>
+      <c r="Q83" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC83,1)," m/s")</f>
+        <v>8.1 m/s</v>
+      </c>
+      <c r="R83" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD83,1)," m/s ; ", ROUND(AE83,1)," m/s]")</f>
+        <v>[5.9 m/s ; 10.2 m/s]</v>
+      </c>
+      <c r="S83" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF83,1)," m/s")</f>
+        <v>12.2 m/s</v>
+      </c>
+      <c r="T83" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG83,1)," m/s ; ", ROUND(AH83,1)," m/s]")</f>
+        <v>[9.8 m/s ; 14.5 m/s]</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z83">
+        <v>5.0411099999999998</v>
+      </c>
+      <c r="AA83">
+        <v>3.665</v>
+      </c>
+      <c r="AB83">
+        <v>6.74</v>
+      </c>
+      <c r="AC83">
+        <v>8.0806900000000006</v>
+      </c>
+      <c r="AD83">
+        <v>5.94</v>
+      </c>
+      <c r="AE83">
+        <v>10.24</v>
+      </c>
+      <c r="AF83">
+        <v>12.1720425</v>
+      </c>
+      <c r="AG83">
+        <v>9.76</v>
+      </c>
+      <c r="AH83">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B84" s="3">
         <v>693063</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C84" s="3">
         <v>676575</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D84" s="1">
         <v>0</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E84" s="1">
         <v>1</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F84" s="1">
         <v>3</v>
       </c>
-      <c r="G81" s="1">
+      <c r="G84" s="1">
         <v>3.1269999999999998</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H84" s="1">
         <v>5</v>
       </c>
-      <c r="I81" s="1">
+      <c r="I84" s="1">
         <v>12</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J84" s="1">
         <v>16488</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="M84" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z84,1)," ")</f>
+        <v xml:space="preserve">4.3 </v>
+      </c>
+      <c r="P84" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA84,1),"  ; ", ROUND(AB84,1)," ]")</f>
+        <v>[4  ; 5 ]</v>
+      </c>
+      <c r="Q84" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC84,1)," ")</f>
+        <v xml:space="preserve">5.6 </v>
+      </c>
+      <c r="R84" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD84,1),"  ; ", ROUND(AE84,1)," ]")</f>
+        <v>[5  ; 6 ]</v>
+      </c>
+      <c r="S84" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF84,1)," ")</f>
+        <v xml:space="preserve">6.9 </v>
+      </c>
+      <c r="T84" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG84,1),"  ; ", ROUND(AH84,1)," ]")</f>
+        <v>[6  ; 8 ]</v>
+      </c>
+      <c r="X84" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z84">
+        <v>4.3187499999999996</v>
+      </c>
+      <c r="AA84">
+        <v>4</v>
+      </c>
+      <c r="AB84">
+        <v>5</v>
+      </c>
+      <c r="AC84">
+        <v>5.5715000000000003</v>
+      </c>
+      <c r="AD84">
+        <v>5</v>
+      </c>
+      <c r="AE84">
+        <v>6</v>
+      </c>
+      <c r="AF84">
+        <v>6.9162499999999998</v>
+      </c>
+      <c r="AG84">
+        <v>6</v>
+      </c>
+      <c r="AH84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M85" s="40"/>
+      <c r="N85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O85" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z85,1)," ")</f>
+        <v xml:space="preserve">1.2 </v>
+      </c>
+      <c r="P85" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA85,1),"  ; ", ROUND(AB85,1)," ]")</f>
+        <v>[1  ; 2 ]</v>
+      </c>
+      <c r="Q85" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC85,1)," ")</f>
+        <v xml:space="preserve">2.8 </v>
+      </c>
+      <c r="R85" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD85,1),"  ; ", ROUND(AE85,1)," ]")</f>
+        <v>[2  ; 4 ]</v>
+      </c>
+      <c r="S85" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF85,1)," ")</f>
+        <v xml:space="preserve">4.6 </v>
+      </c>
+      <c r="T85" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG85,1),"  ; ", ROUND(AH85,1)," ]")</f>
+        <v>[4  ; 6 ]</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z85">
+        <v>1.151</v>
+      </c>
+      <c r="AA85">
+        <v>1</v>
+      </c>
+      <c r="AB85">
+        <v>2</v>
+      </c>
+      <c r="AC85">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="AD85">
+        <v>2</v>
+      </c>
+      <c r="AE85">
+        <v>4</v>
+      </c>
+      <c r="AF85">
+        <v>4.6142500000000002</v>
+      </c>
+      <c r="AG85">
+        <v>4</v>
+      </c>
+      <c r="AH85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
+    <row r="108" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C108" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="23" t="s">
+    <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B106" s="30" t="s">
+      <c r="B109" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C109" t="s">
         <v>91</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D109" t="s">
         <v>92</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E109" t="s">
         <v>93</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F109" t="s">
         <v>94</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G109" t="s">
         <v>95</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H109" t="s">
         <v>96</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I109" t="s">
         <v>97</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J109" t="s">
         <v>98</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K109" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="39" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107">
+      <c r="B110" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110">
         <v>11.542358</v>
       </c>
-      <c r="D107">
+      <c r="D110">
         <v>8.6869999999999994</v>
       </c>
-      <c r="E107">
+      <c r="E110">
         <v>14.009</v>
       </c>
-      <c r="F107">
+      <c r="F110">
         <v>17.607532748129302</v>
       </c>
-      <c r="G107">
+      <c r="G110">
         <v>16.268599999999999</v>
       </c>
-      <c r="H107">
+      <c r="H110">
         <v>18.933800000000002</v>
       </c>
-      <c r="I107">
+      <c r="I110">
         <v>22.958967000000001</v>
       </c>
-      <c r="J107">
+      <c r="J110">
         <v>21.292000000000002</v>
       </c>
-      <c r="K107">
+      <c r="K110">
         <v>24.782</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="38"/>
-      <c r="B108" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108">
+    <row r="111" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="40"/>
+      <c r="B111" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
         <v>3.3350724999999999</v>
       </c>
-      <c r="D108">
+      <c r="D111">
         <v>0.93899999999999995</v>
       </c>
-      <c r="E108">
+      <c r="E111">
         <v>5.7694999999999999</v>
       </c>
-      <c r="F108">
+      <c r="F111">
         <v>11.711537</v>
       </c>
-      <c r="G108">
+      <c r="G111">
         <v>9.8389000000000006</v>
       </c>
-      <c r="H108">
+      <c r="H111">
         <v>13.4305</v>
       </c>
-      <c r="I108">
+      <c r="I111">
         <v>20.670808000000001</v>
       </c>
-      <c r="J108">
+      <c r="J111">
         <v>17.790500000000002</v>
       </c>
-      <c r="K108">
+      <c r="K111">
         <v>23.5715</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="37" t="s">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109">
+      <c r="B112" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
         <v>16.249106000000001</v>
       </c>
-      <c r="D109">
+      <c r="D112">
         <v>13.273</v>
       </c>
-      <c r="E109">
+      <c r="E112">
         <v>19.13</v>
       </c>
-      <c r="F109">
+      <c r="F112">
         <v>23.147858582823101</v>
       </c>
-      <c r="G109">
+      <c r="G112">
         <v>21.611799999999999</v>
       </c>
-      <c r="H109">
+      <c r="H112">
         <v>24.654399999999999</v>
       </c>
-      <c r="I109">
+      <c r="I112">
         <v>29.647075999999998</v>
       </c>
-      <c r="J109">
+      <c r="J112">
         <v>27.422999999999998</v>
       </c>
-      <c r="K109">
+      <c r="K112">
         <v>31.978999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="38"/>
-      <c r="B110" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C110">
+    <row r="113" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="40"/>
+      <c r="B113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
         <v>6.8946290000000001</v>
       </c>
-      <c r="D110">
+      <c r="D113">
         <v>4.319</v>
       </c>
-      <c r="E110">
+      <c r="E113">
         <v>9.3670000000000009</v>
       </c>
-      <c r="F110">
+      <c r="F113">
         <v>16.363183927381002</v>
       </c>
-      <c r="G110">
+      <c r="G113">
         <v>14.2342</v>
       </c>
-      <c r="H110">
+      <c r="H113">
         <v>18.719799999999999</v>
       </c>
-      <c r="I110">
+      <c r="I113">
         <v>26.998843999999998</v>
       </c>
-      <c r="J110">
+      <c r="J113">
         <v>23.198</v>
       </c>
-      <c r="K110">
+      <c r="K113">
         <v>30.39</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A114" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111">
+      <c r="B114" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
         <v>57.5792</v>
       </c>
-      <c r="D111">
+      <c r="D114">
         <v>52.5</v>
       </c>
-      <c r="E111">
+      <c r="E114">
         <v>62.8</v>
       </c>
-      <c r="F111">
+      <c r="F114">
         <v>71.550240000000002</v>
       </c>
-      <c r="G111">
+      <c r="G114">
         <v>68.540000000000006</v>
       </c>
-      <c r="H111">
+      <c r="H114">
         <v>74.34</v>
       </c>
-      <c r="I111">
+      <c r="I114">
         <v>85.014200000000002</v>
       </c>
-      <c r="J111">
+      <c r="J114">
         <v>81</v>
       </c>
-      <c r="K111">
+      <c r="K114">
         <v>90.1</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="38"/>
-      <c r="B112" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C112">
+    <row r="115" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="40"/>
+      <c r="B115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115">
         <v>57.300199999999997</v>
       </c>
-      <c r="D112">
+      <c r="D115">
         <v>50</v>
       </c>
-      <c r="E112">
+      <c r="E115">
         <v>64</v>
       </c>
-      <c r="F112">
+      <c r="F115">
         <v>74.685319863945594</v>
       </c>
-      <c r="G112">
+      <c r="G115">
         <v>71.180000000000007</v>
       </c>
-      <c r="H112">
+      <c r="H115">
         <v>78.34</v>
       </c>
-      <c r="I112">
+      <c r="I115">
         <v>89.941900000000004</v>
       </c>
-      <c r="J112">
+      <c r="J115">
         <v>85.2</v>
       </c>
-      <c r="K112">
+      <c r="K115">
         <v>94.2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="37" t="s">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A116" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113">
+      <c r="B116" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
         <v>6.0162190000000004</v>
       </c>
-      <c r="D113">
+      <c r="D116">
         <v>3.2749999999999999</v>
       </c>
-      <c r="E113">
+      <c r="E116">
         <v>8.5869999999999997</v>
       </c>
-      <c r="F113">
+      <c r="F116">
         <v>11.5389602137755</v>
       </c>
-      <c r="G113">
+      <c r="G116">
         <v>10.2902</v>
       </c>
-      <c r="H113">
+      <c r="H116">
         <v>12.6988</v>
       </c>
-      <c r="I113">
+      <c r="I116">
         <v>16.155778000000002</v>
       </c>
-      <c r="J113">
+      <c r="J116">
         <v>14.95</v>
       </c>
-      <c r="K113">
+      <c r="K116">
         <v>17.335000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="38"/>
-      <c r="B114" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114">
+    <row r="117" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="40"/>
+      <c r="B117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117">
         <v>-1.3068059999999999</v>
       </c>
-      <c r="D114">
+      <c r="D117">
         <v>-4.6210000000000004</v>
       </c>
-      <c r="E114">
+      <c r="E117">
         <v>1.69</v>
       </c>
-      <c r="F114">
+      <c r="F117">
         <v>6.46047912227891</v>
       </c>
-      <c r="G114">
+      <c r="G117">
         <v>4.6829999999999998</v>
       </c>
-      <c r="H114">
+      <c r="H117">
         <v>8.0693877551020403</v>
       </c>
-      <c r="I114">
+      <c r="I117">
         <v>14.046082</v>
       </c>
-      <c r="J114">
+      <c r="J117">
         <v>11.571</v>
       </c>
-      <c r="K114">
+      <c r="K117">
         <v>15.923</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="37" t="s">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A118" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115">
+      <c r="B118" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118">
         <v>1010.61029</v>
       </c>
-      <c r="D115">
+      <c r="D118">
         <v>1005.9</v>
       </c>
-      <c r="E115">
+      <c r="E118">
         <v>1014.08</v>
       </c>
-      <c r="F115">
+      <c r="F118">
         <v>1017.12824660972</v>
       </c>
-      <c r="G115">
+      <c r="G118">
         <v>1015.23225806452</v>
       </c>
-      <c r="H115">
+      <c r="H118">
         <v>1019.16285714286</v>
       </c>
-      <c r="I115">
+      <c r="I118">
         <v>1023.57846</v>
       </c>
-      <c r="J115">
+      <c r="J118">
         <v>1020.84</v>
       </c>
-      <c r="K115">
+      <c r="K118">
         <v>1026.82</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="38"/>
-      <c r="B116" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C116">
+    <row r="119" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="40"/>
+      <c r="B119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119">
         <v>1006.7243999999999</v>
       </c>
-      <c r="D116">
+      <c r="D119">
         <v>1000.42</v>
       </c>
-      <c r="E116">
+      <c r="E119">
         <v>1011.7</v>
       </c>
-      <c r="F116">
+      <c r="F119">
         <v>1017.60313530324</v>
       </c>
-      <c r="G116">
+      <c r="G119">
         <v>1014.87659574468</v>
       </c>
-      <c r="H116">
+      <c r="H119">
         <v>1020.21086956522</v>
       </c>
-      <c r="I116">
+      <c r="I119">
         <v>1027.9536499999999</v>
       </c>
-      <c r="J116">
+      <c r="J119">
         <v>1023.8</v>
       </c>
-      <c r="K116">
+      <c r="K119">
         <v>1032.71</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="37" t="s">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A120" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117">
+      <c r="B120" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120">
         <v>1.3633379999999999</v>
       </c>
-      <c r="D117">
+      <c r="D120">
         <v>1.075</v>
       </c>
-      <c r="E117">
+      <c r="E120">
         <v>1.6919999999999999</v>
       </c>
-      <c r="F117">
+      <c r="F120">
         <v>2.6886389306122398</v>
       </c>
-      <c r="G117">
+      <c r="G120">
         <v>2.3672</v>
       </c>
-      <c r="H117">
+      <c r="H120">
         <v>3.0748000000000002</v>
       </c>
-      <c r="I117">
+      <c r="I120">
         <v>4.2643180000000003</v>
       </c>
-      <c r="J117">
+      <c r="J120">
         <v>3.5270000000000001</v>
       </c>
-      <c r="K117">
+      <c r="K120">
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="38"/>
-      <c r="B118" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118">
+    <row r="121" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="40"/>
+      <c r="B121" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121">
         <v>1.330044</v>
       </c>
-      <c r="D118">
+      <c r="D121">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E118">
+      <c r="E121">
         <v>1.702</v>
       </c>
-      <c r="F118">
+      <c r="F121">
         <v>3.2370161721088402</v>
       </c>
-      <c r="G118">
+      <c r="G121">
         <v>2.7134</v>
       </c>
-      <c r="H118">
+      <c r="H121">
         <v>3.8031999999999999</v>
       </c>
-      <c r="I118">
+      <c r="I121">
         <v>5.6911310000000004</v>
       </c>
-      <c r="J118">
+      <c r="J121">
         <v>4.3710000000000004</v>
       </c>
-      <c r="K118">
+      <c r="K121">
         <v>7.2859999999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="37" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A122" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119">
+      <c r="B122" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122">
         <v>9.1328210999999992</v>
       </c>
-      <c r="D119">
+      <c r="D122">
         <v>7.9253999999999998</v>
       </c>
-      <c r="E119">
+      <c r="E122">
         <v>9.8228000000000009</v>
       </c>
-      <c r="F119">
+      <c r="F122">
         <v>11.854637288273301</v>
       </c>
-      <c r="G119">
+      <c r="G122">
         <v>10.970659574468099</v>
       </c>
-      <c r="H119">
+      <c r="H122">
         <v>12.733280000000001</v>
       </c>
-      <c r="I119">
+      <c r="I122">
         <v>16.0908306</v>
       </c>
-      <c r="J119">
+      <c r="J122">
         <v>16.093</v>
       </c>
-      <c r="K119">
+      <c r="K122">
         <v>16.093</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="38"/>
-      <c r="B120" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C120">
+    <row r="123" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="40"/>
+      <c r="B123" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C123">
         <v>8.9573088999999992</v>
       </c>
-      <c r="D120">
+      <c r="D123">
         <v>7.2582000000000004</v>
       </c>
-      <c r="E120">
+      <c r="E123">
         <v>9.8873999999999995</v>
       </c>
-      <c r="F120">
+      <c r="F123">
         <v>12.959620352055399</v>
       </c>
-      <c r="G120">
+      <c r="G123">
         <v>12.0037346938776</v>
       </c>
-      <c r="H120">
+      <c r="H123">
         <v>13.899574468085101</v>
       </c>
-      <c r="I120">
+      <c r="I123">
         <v>16.093</v>
       </c>
-      <c r="J120">
+      <c r="J123">
         <v>16.093</v>
       </c>
-      <c r="K120">
+      <c r="K123">
         <v>16.093</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="37" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A124" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C121">
+      <c r="B124" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C124">
         <v>18.876100000000001</v>
       </c>
-      <c r="D121">
+      <c r="D124">
         <v>3.6</v>
       </c>
-      <c r="E121">
+      <c r="E124">
         <v>38</v>
       </c>
-      <c r="F121">
+      <c r="F124">
         <v>59.837362546728599</v>
       </c>
-      <c r="G121">
+      <c r="G124">
         <v>51.174999999999997</v>
       </c>
-      <c r="H121">
+      <c r="H124">
         <v>68.186046511627893</v>
       </c>
-      <c r="I121">
+      <c r="I124">
         <v>89.975399999999993</v>
       </c>
-      <c r="J121">
+      <c r="J124">
         <v>83</v>
       </c>
-      <c r="K121">
+      <c r="K124">
         <v>95.8</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="38"/>
-      <c r="B122" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C122">
+    <row r="125" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="40"/>
+      <c r="B125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125">
         <v>17.4922</v>
       </c>
-      <c r="D122">
+      <c r="D125">
         <v>2</v>
       </c>
-      <c r="E122">
+      <c r="E125">
         <v>39</v>
       </c>
-      <c r="F122">
+      <c r="F125">
         <v>64.189025406485001</v>
       </c>
-      <c r="G122">
+      <c r="G125">
         <v>55.066666666666698</v>
       </c>
-      <c r="H122">
+      <c r="H125">
         <v>73.1666666666667</v>
       </c>
-      <c r="I122">
+      <c r="I125">
         <v>95.686099999999996</v>
       </c>
-      <c r="J122">
+      <c r="J125">
         <v>90.5</v>
       </c>
-      <c r="K122">
+      <c r="K125">
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="37" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A126" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C123">
+      <c r="B126" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126">
         <v>3.3062</v>
       </c>
-      <c r="D123">
+      <c r="D126">
         <v>2.3420000000000001</v>
       </c>
-      <c r="E123">
+      <c r="E126">
         <v>4.359</v>
       </c>
-      <c r="F123">
+      <c r="F126">
         <v>7.0371303805822798</v>
       </c>
-      <c r="G123">
+      <c r="G126">
         <v>5.8146874999999998</v>
       </c>
-      <c r="H123">
+      <c r="H126">
         <v>8.3437142857142899</v>
       </c>
-      <c r="I123">
+      <c r="I126">
         <v>11.669551999999999</v>
       </c>
-      <c r="J123">
+      <c r="J126">
         <v>8.93</v>
       </c>
-      <c r="K123">
+      <c r="K126">
         <v>14.911</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="38"/>
-      <c r="B124" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C124">
+    <row r="127" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="40"/>
+      <c r="B127" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127">
         <v>3.382253</v>
       </c>
-      <c r="D124">
+      <c r="D127">
         <v>2.39</v>
       </c>
-      <c r="E124">
+      <c r="E127">
         <v>4.63</v>
       </c>
-      <c r="F124">
+      <c r="F127">
         <v>8.9139943338498409</v>
       </c>
-      <c r="G124">
+      <c r="G127">
         <v>7.4254761904761901</v>
       </c>
-      <c r="H124">
+      <c r="H127">
         <v>10.4413513513514</v>
       </c>
-      <c r="I124">
+      <c r="I127">
         <v>15.345464</v>
       </c>
-      <c r="J124">
+      <c r="J127">
         <v>12.58</v>
       </c>
-      <c r="K124">
+      <c r="K127">
         <v>18.36</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="37" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A128" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C125">
+      <c r="B128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128">
         <v>2.9449000000000001</v>
       </c>
-      <c r="D125">
+      <c r="D128">
         <v>1</v>
       </c>
-      <c r="E125">
+      <c r="E128">
         <v>4</v>
       </c>
-      <c r="F125">
+      <c r="F128">
         <v>5.4784303007238302</v>
       </c>
-      <c r="G125">
+      <c r="G128">
         <v>4.8043478260869596</v>
       </c>
-      <c r="H125">
+      <c r="H128">
         <v>6.0652173913043503</v>
       </c>
-      <c r="I125">
+      <c r="I128">
         <v>7.9515000000000002</v>
       </c>
-      <c r="J125">
+      <c r="J128">
         <v>7</v>
       </c>
-      <c r="K125">
+      <c r="K128">
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="38"/>
-      <c r="B126" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126">
+    <row r="129" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="40"/>
+      <c r="B129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129">
         <v>0.84919999999999995</v>
       </c>
-      <c r="D126">
+      <c r="D129">
         <v>0</v>
       </c>
-      <c r="E126">
+      <c r="E129">
         <v>1</v>
       </c>
-      <c r="F126">
+      <c r="F129">
         <v>3.1302192976456999</v>
       </c>
-      <c r="G126">
+      <c r="G129">
         <v>2.5106382978723398</v>
       </c>
-      <c r="H126">
+      <c r="H129">
         <v>3.77551020408163</v>
       </c>
-      <c r="I126">
+      <c r="I129">
         <v>6.1837999999999997</v>
       </c>
-      <c r="J126">
+      <c r="J129">
         <v>5</v>
       </c>
-      <c r="K126">
+      <c r="K129">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="40">
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M34:M35"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="M28:M29"/>
     <mergeCell ref="M30:M31"/>
@@ -5664,27 +7122,16 @@
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="M22:M23"/>
     <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="M82:M83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5695,7 +7142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView topLeftCell="K40" workbookViewId="0">
+    <sheetView topLeftCell="K28" workbookViewId="0">
       <selection activeCell="O39" sqref="O39:T58"/>
     </sheetView>
   </sheetViews>
@@ -5977,7 +7424,7 @@
       <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="39" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -6051,7 +7498,7 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="7" t="s">
         <v>31</v>
       </c>
@@ -6093,7 +7540,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -6140,7 +7587,7 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="7" t="s">
         <v>31</v>
       </c>
@@ -6209,7 +7656,7 @@
       <c r="J20" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -6285,7 +7732,7 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="M21" s="38"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="7" t="s">
         <v>31</v>
       </c>
@@ -6327,7 +7774,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="4" t="s">
@@ -6374,7 +7821,7 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="38"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="7" t="s">
         <v>31</v>
       </c>
@@ -6443,7 +7890,7 @@
       <c r="J24" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -6519,7 +7966,7 @@
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="M25" s="38"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="7" t="s">
         <v>31</v>
       </c>
@@ -6561,7 +8008,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -6608,7 +8055,7 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="7" t="s">
         <v>31</v>
       </c>
@@ -6677,7 +8124,7 @@
       <c r="J28" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N28" s="4" t="s">
@@ -6753,7 +8200,7 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="M29" s="38"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="7" t="s">
         <v>31</v>
       </c>
@@ -6795,7 +8242,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N30" s="4" t="s">
@@ -6842,7 +8289,7 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="38"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="7" t="s">
         <v>31</v>
       </c>
@@ -6911,7 +8358,7 @@
       <c r="J32" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -6987,7 +8434,7 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="M33" s="38"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="7" t="s">
         <v>31</v>
       </c>
@@ -7029,7 +8476,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -7103,7 +8550,7 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="7" t="s">
         <v>31</v>
       </c>
@@ -7329,7 +8776,7 @@
       <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="41" t="s">
         <v>35</v>
       </c>
       <c r="N39" s="24" t="s">
@@ -7359,7 +8806,7 @@
         <f>CONCATENATE("[",ROUND(AG39,1)," °C ; ", ROUND(AH39,1)," °C]")</f>
         <v>[22 °C ; 25.1 °C]</v>
       </c>
-      <c r="X39" s="39" t="s">
+      <c r="X39" s="41" t="s">
         <v>35</v>
       </c>
       <c r="Y39" s="24" t="s">
@@ -7430,7 +8877,7 @@
       <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="25" t="s">
         <v>31</v>
       </c>
@@ -7458,7 +8905,7 @@
         <f>CONCATENATE("[",ROUND(AG40,1)," °C ; ", ROUND(AH40,1)," °C]")</f>
         <v>[17.7 °C ; 23.4 °C]</v>
       </c>
-      <c r="X40" s="38"/>
+      <c r="X40" s="40"/>
       <c r="Y40" s="25" t="s">
         <v>31</v>
       </c>
@@ -7531,7 +8978,7 @@
       <c r="J41">
         <v>182</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -7561,7 +9008,7 @@
         <f>CONCATENATE("[",ROUND(AG41,1)," °C ; ", ROUND(AH41,1)," °C]")</f>
         <v>[27.7 °C ; 31.6 °C]</v>
       </c>
-      <c r="X41" s="37" t="s">
+      <c r="X41" s="39" t="s">
         <v>36</v>
       </c>
       <c r="Y41" s="4" t="s">
@@ -7605,7 +9052,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M42" s="38"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="7" t="s">
         <v>31</v>
       </c>
@@ -7633,7 +9080,7 @@
         <f>CONCATENATE("[",ROUND(AG42,1)," °C ; ", ROUND(AH42,1)," °C]")</f>
         <v>[23.5 °C ; 30.6 °C]</v>
       </c>
-      <c r="X42" s="38"/>
+      <c r="X42" s="40"/>
       <c r="Y42" s="7" t="s">
         <v>31</v>
       </c>
@@ -7678,7 +9125,7 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -7708,7 +9155,7 @@
         <f>CONCATENATE("[",ROUND(AG43,1)," % ; ", ROUND(AH43,1)," %]")</f>
         <v>[77 % ; 86.1 %]</v>
       </c>
-      <c r="X43" s="37" t="s">
+      <c r="X43" s="39" t="s">
         <v>37</v>
       </c>
       <c r="Y43" s="4" t="s">
@@ -7779,7 +9226,7 @@
       <c r="J44" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="38"/>
+      <c r="M44" s="40"/>
       <c r="N44" s="7" t="s">
         <v>31</v>
       </c>
@@ -7807,7 +9254,7 @@
         <f>CONCATENATE("[",ROUND(AG44,1)," °C ; ", ROUND(AH44,1)," °C]")</f>
         <v>[86 °C ; 94.1 °C]</v>
       </c>
-      <c r="X44" s="38"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="7" t="s">
         <v>31</v>
       </c>
@@ -7881,7 +9328,7 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -7911,7 +9358,7 @@
         <f>CONCATENATE("[",ROUND(AG45,1)," °C ; ", ROUND(AH45,1)," °C]")</f>
         <v>[15.1 °C ; 17.2 °C]</v>
       </c>
-      <c r="X45" s="37" t="s">
+      <c r="X45" s="39" t="s">
         <v>38</v>
       </c>
       <c r="Y45" s="4" t="s">
@@ -7955,7 +9402,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M46" s="38"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -7983,7 +9430,7 @@
         <f>CONCATENATE("[",ROUND(AG46,1)," °C ; ", ROUND(AH46,1)," °C]")</f>
         <v>[11.6 °C ; 16 °C]</v>
       </c>
-      <c r="X46" s="38"/>
+      <c r="X46" s="40"/>
       <c r="Y46" s="7" t="s">
         <v>31</v>
       </c>
@@ -8028,7 +9475,7 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="37" t="s">
+      <c r="M47" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -8058,7 +9505,7 @@
         <f>CONCATENATE("[",ROUND(AG47,1)," hPa ; ", ROUND(AH47,1)," hPa]")</f>
         <v>[1021.2 hPa ; 1026.9 hPa]</v>
       </c>
-      <c r="X47" s="37" t="s">
+      <c r="X47" s="39" t="s">
         <v>39</v>
       </c>
       <c r="Y47" s="4" t="s">
@@ -8129,7 +9576,7 @@
       <c r="J48" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="38"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="7" t="s">
         <v>31</v>
       </c>
@@ -8157,7 +9604,7 @@
         <f>CONCATENATE("[",ROUND(AG48,1)," hPa ; ", ROUND(AH48,1)," hPa]")</f>
         <v>[1023.9 hPa ; 1033 hPa]</v>
       </c>
-      <c r="X48" s="38"/>
+      <c r="X48" s="40"/>
       <c r="Y48" s="7" t="s">
         <v>31</v>
       </c>
@@ -8231,7 +9678,7 @@
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N49" s="4" t="s">
@@ -8261,7 +9708,7 @@
         <f>CONCATENATE("[",ROUND(AG49,1)," m/s ; ", ROUND(AH49,1)," m/s]")</f>
         <v>[3.4 m/s ; 4.6 m/s]</v>
       </c>
-      <c r="X49" s="37" t="s">
+      <c r="X49" s="39" t="s">
         <v>40</v>
       </c>
       <c r="Y49" s="4" t="s">
@@ -8305,7 +9752,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M50" s="38"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="7" t="s">
         <v>31</v>
       </c>
@@ -8333,7 +9780,7 @@
         <f>CONCATENATE("[",ROUND(AG50,1)," m/s ; ", ROUND(AH50,1)," m/s]")</f>
         <v>[4.4 m/s ; 7.4 m/s]</v>
       </c>
-      <c r="X50" s="38"/>
+      <c r="X50" s="40"/>
       <c r="Y50" s="7" t="s">
         <v>31</v>
       </c>
@@ -8378,7 +9825,7 @@
       <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N51" s="4" t="s">
@@ -8408,7 +9855,7 @@
         <f>CONCATENATE("[",ROUND(AG51,1)," km ; ", ROUND(AH51,1)," km]")</f>
         <v>[16.1 km ; 16.1 km]</v>
       </c>
-      <c r="X51" s="37" t="s">
+      <c r="X51" s="39" t="s">
         <v>41</v>
       </c>
       <c r="Y51" s="4" t="s">
@@ -8479,7 +9926,7 @@
       <c r="J52" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="38"/>
+      <c r="M52" s="40"/>
       <c r="N52" s="7" t="s">
         <v>31</v>
       </c>
@@ -8507,7 +9954,7 @@
         <f>CONCATENATE("[",ROUND(AG52,1)," km ; ", ROUND(AH52,1)," km]")</f>
         <v>[16.1 km ; 16.1 km]</v>
       </c>
-      <c r="X52" s="38"/>
+      <c r="X52" s="40"/>
       <c r="Y52" s="7" t="s">
         <v>31</v>
       </c>
@@ -8580,7 +10027,7 @@
       <c r="J53">
         <v>1</v>
       </c>
-      <c r="M53" s="37" t="s">
+      <c r="M53" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N53" s="4" t="s">
@@ -8610,7 +10057,7 @@
         <f>CONCATENATE("[",ROUND(AG53,1),"  % ; ", ROUND(AH53,1),"  %]")</f>
         <v>[79  % ; 91.8  %]</v>
       </c>
-      <c r="X53" s="37" t="s">
+      <c r="X53" s="39" t="s">
         <v>42</v>
       </c>
       <c r="Y53" s="4" t="s">
@@ -8654,7 +10101,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M54" s="38"/>
+      <c r="M54" s="40"/>
       <c r="N54" s="7" t="s">
         <v>31</v>
       </c>
@@ -8682,7 +10129,7 @@
         <f>CONCATENATE("[",ROUND(AG54,1),"  % ; ", ROUND(AH54,1),"  %]")</f>
         <v>[91  % ; 99  %]</v>
       </c>
-      <c r="X54" s="38"/>
+      <c r="X54" s="40"/>
       <c r="Y54" s="7" t="s">
         <v>31</v>
       </c>
@@ -8727,7 +10174,7 @@
       <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="37" t="s">
+      <c r="M55" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N55" s="4" t="s">
@@ -8757,7 +10204,7 @@
         <f>CONCATENATE("[",ROUND(AG55,1)," m/s ; ", ROUND(AH55,1)," m/s]")</f>
         <v>[8.8 m/s ; 13.7 m/s]</v>
       </c>
-      <c r="X55" s="37" t="s">
+      <c r="X55" s="39" t="s">
         <v>43</v>
       </c>
       <c r="Y55" s="4" t="s">
@@ -8828,7 +10275,7 @@
       <c r="J56" t="s">
         <v>4</v>
       </c>
-      <c r="M56" s="38"/>
+      <c r="M56" s="40"/>
       <c r="N56" s="7" t="s">
         <v>31</v>
       </c>
@@ -8856,7 +10303,7 @@
         <f>CONCATENATE("[",ROUND(AG56,1)," m/s ; ", ROUND(AH56,1)," m/s]")</f>
         <v>[12.8 m/s ; 18.4 m/s]</v>
       </c>
-      <c r="X56" s="38"/>
+      <c r="X56" s="40"/>
       <c r="Y56" s="7" t="s">
         <v>31</v>
       </c>
@@ -8929,7 +10376,7 @@
       <c r="J57">
         <v>24</v>
       </c>
-      <c r="M57" s="37" t="s">
+      <c r="M57" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -8959,7 +10406,7 @@
         <f>CONCATENATE("[",ROUND(AG57,1),"  ; ", ROUND(AH57,1)," ]")</f>
         <v>[7  ; 8 ]</v>
       </c>
-      <c r="X57" s="37" t="s">
+      <c r="X57" s="39" t="s">
         <v>44</v>
       </c>
       <c r="Y57" s="4" t="s">
@@ -9003,7 +10450,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M58" s="38"/>
+      <c r="M58" s="40"/>
       <c r="N58" s="7" t="s">
         <v>31</v>
       </c>
@@ -9031,7 +10478,7 @@
         <f>CONCATENATE("[",ROUND(AG58,1),"  ; ", ROUND(AH58,1)," ]")</f>
         <v>[5  ; 7.4 ]</v>
       </c>
-      <c r="X58" s="38"/>
+      <c r="X58" s="40"/>
       <c r="Y58" s="7" t="s">
         <v>31</v>
       </c>
@@ -9770,7 +11217,7 @@
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -9805,7 +11252,7 @@
       </c>
     </row>
     <row r="108" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="38"/>
+      <c r="A108" s="40"/>
       <c r="B108" s="25" t="s">
         <v>31</v>
       </c>
@@ -9838,7 +11285,7 @@
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -9873,7 +11320,7 @@
       </c>
     </row>
     <row r="110" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="38"/>
+      <c r="A110" s="40"/>
       <c r="B110" s="7" t="s">
         <v>31</v>
       </c>
@@ -9906,7 +11353,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -9941,7 +11388,7 @@
       </c>
     </row>
     <row r="112" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="38"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="7" t="s">
         <v>31</v>
       </c>
@@ -9974,7 +11421,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -10009,7 +11456,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="38"/>
+      <c r="A114" s="40"/>
       <c r="B114" s="7" t="s">
         <v>31</v>
       </c>
@@ -10042,7 +11489,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -10077,7 +11524,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="38"/>
+      <c r="A116" s="40"/>
       <c r="B116" s="7" t="s">
         <v>31</v>
       </c>
@@ -10110,7 +11557,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="37" t="s">
+      <c r="A117" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -10145,7 +11592,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="38"/>
+      <c r="A118" s="40"/>
       <c r="B118" s="7" t="s">
         <v>31</v>
       </c>
@@ -10178,7 +11625,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -10213,7 +11660,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="38"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="7" t="s">
         <v>31</v>
       </c>
@@ -10246,7 +11693,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -10281,7 +11728,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="38"/>
+      <c r="A122" s="40"/>
       <c r="B122" s="7" t="s">
         <v>31</v>
       </c>
@@ -10314,7 +11761,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -10349,7 +11796,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="38"/>
+      <c r="A124" s="40"/>
       <c r="B124" s="7" t="s">
         <v>31</v>
       </c>
@@ -10382,7 +11829,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -10417,7 +11864,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="38"/>
+      <c r="A126" s="40"/>
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
@@ -10451,6 +11898,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="X53:X54"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="X45:X46"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="X49:X50"/>
+    <mergeCell ref="X51:X52"/>
+    <mergeCell ref="M39:M40"/>
     <mergeCell ref="X55:X56"/>
     <mergeCell ref="X57:X58"/>
     <mergeCell ref="M16:M17"/>
@@ -10467,30 +11938,6 @@
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="M47:M48"/>
     <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="X53:X54"/>
-    <mergeCell ref="X39:X40"/>
-    <mergeCell ref="X41:X42"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="X45:X46"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="X49:X50"/>
-    <mergeCell ref="X51:X52"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10501,8 +11948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K37" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView topLeftCell="L31" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60:T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10776,7 +12223,7 @@
       <c r="J16" t="s">
         <v>4</v>
       </c>
-      <c r="M16" s="37" t="s">
+      <c r="M16" s="39" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="4" t="s">
@@ -10850,7 +12297,7 @@
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="M17" s="38"/>
+      <c r="M17" s="40"/>
       <c r="N17" s="7" t="s">
         <v>31</v>
       </c>
@@ -10892,7 +12339,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M18" s="37" t="s">
+      <c r="M18" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N18" s="4" t="s">
@@ -10939,7 +12386,7 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="7" t="s">
         <v>31</v>
       </c>
@@ -11008,7 +12455,7 @@
       <c r="J20" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="37" t="s">
+      <c r="M20" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N20" s="4" t="s">
@@ -11079,7 +12526,7 @@
       <c r="I21">
         <v>100</v>
       </c>
-      <c r="M21" s="38"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="7" t="s">
         <v>31</v>
       </c>
@@ -11121,7 +12568,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M22" s="37" t="s">
+      <c r="M22" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N22" s="4" t="s">
@@ -11168,7 +12615,7 @@
       <c r="C23" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="38"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="7" t="s">
         <v>31</v>
       </c>
@@ -11237,7 +12684,7 @@
       <c r="J24" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="M24" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N24" s="4" t="s">
@@ -11311,7 +12758,7 @@
       <c r="J25">
         <v>15</v>
       </c>
-      <c r="M25" s="38"/>
+      <c r="M25" s="40"/>
       <c r="N25" s="7" t="s">
         <v>31</v>
       </c>
@@ -11353,7 +12800,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M26" s="37" t="s">
+      <c r="M26" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N26" s="4" t="s">
@@ -11400,7 +12847,7 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="38"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="7" t="s">
         <v>31</v>
       </c>
@@ -11469,7 +12916,7 @@
       <c r="J28" t="s">
         <v>4</v>
       </c>
-      <c r="M28" s="37" t="s">
+      <c r="M28" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N28" s="4" t="s">
@@ -11540,7 +12987,7 @@
       <c r="I29">
         <v>20.27</v>
       </c>
-      <c r="M29" s="38"/>
+      <c r="M29" s="40"/>
       <c r="N29" s="7" t="s">
         <v>31</v>
       </c>
@@ -11582,7 +13029,7 @@
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="M30" s="37" t="s">
+      <c r="M30" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N30" s="4" t="s">
@@ -11629,7 +13076,7 @@
       <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="38"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="7" t="s">
         <v>31</v>
       </c>
@@ -11698,7 +13145,7 @@
       <c r="J32" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -11772,7 +13219,7 @@
       <c r="J33">
         <v>15</v>
       </c>
-      <c r="M33" s="38"/>
+      <c r="M33" s="40"/>
       <c r="N33" s="7" t="s">
         <v>31</v>
       </c>
@@ -11814,7 +13261,7 @@
       </c>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="M34" s="37" t="s">
+      <c r="M34" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N34" s="4" t="s">
@@ -11888,7 +13335,7 @@
       <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="M35" s="38"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="7" t="s">
         <v>31</v>
       </c>
@@ -12113,7 +13560,7 @@
       <c r="C39" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="41" t="s">
         <v>35</v>
       </c>
       <c r="N39" s="24" t="s">
@@ -12214,7 +13661,7 @@
       <c r="J40" t="s">
         <v>4</v>
       </c>
-      <c r="M40" s="38"/>
+      <c r="M40" s="40"/>
       <c r="N40" s="25" t="s">
         <v>31</v>
       </c>
@@ -12313,7 +13760,7 @@
       <c r="J41">
         <v>5260</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="39" t="s">
         <v>36</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -12387,7 +13834,7 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M42" s="38"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="7" t="s">
         <v>31</v>
       </c>
@@ -12459,7 +13906,7 @@
       <c r="C43" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="39" t="s">
         <v>37</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -12560,7 +14007,7 @@
       <c r="J44" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="38"/>
+      <c r="M44" s="40"/>
       <c r="N44" s="7" t="s">
         <v>31</v>
       </c>
@@ -12659,7 +14106,7 @@
       <c r="J45">
         <v>2</v>
       </c>
-      <c r="M45" s="37" t="s">
+      <c r="M45" s="39" t="s">
         <v>38</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -12733,7 +14180,7 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M46" s="38"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="7" t="s">
         <v>31</v>
       </c>
@@ -12805,7 +14252,7 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="M47" s="37" t="s">
+      <c r="M47" s="39" t="s">
         <v>39</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -12906,7 +14353,7 @@
       <c r="J48" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="38"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="7" t="s">
         <v>31</v>
       </c>
@@ -13005,7 +14452,7 @@
       <c r="J49">
         <v>41</v>
       </c>
-      <c r="M49" s="37" t="s">
+      <c r="M49" s="39" t="s">
         <v>40</v>
       </c>
       <c r="N49" s="4" t="s">
@@ -13079,7 +14526,7 @@
       </c>
     </row>
     <row r="50" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M50" s="38"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="7" t="s">
         <v>31</v>
       </c>
@@ -13151,7 +14598,7 @@
       <c r="C51" t="s">
         <v>20</v>
       </c>
-      <c r="M51" s="37" t="s">
+      <c r="M51" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N51" s="4" t="s">
@@ -13252,7 +14699,7 @@
       <c r="J52" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="38"/>
+      <c r="M52" s="40"/>
       <c r="N52" s="7" t="s">
         <v>31</v>
       </c>
@@ -13351,7 +14798,7 @@
       <c r="J53">
         <v>28</v>
       </c>
-      <c r="M53" s="37" t="s">
+      <c r="M53" s="39" t="s">
         <v>42</v>
       </c>
       <c r="N53" s="4" t="s">
@@ -13425,7 +14872,7 @@
       </c>
     </row>
     <row r="54" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M54" s="38"/>
+      <c r="M54" s="40"/>
       <c r="N54" s="7" t="s">
         <v>31</v>
       </c>
@@ -13497,7 +14944,7 @@
       <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="37" t="s">
+      <c r="M55" s="39" t="s">
         <v>43</v>
       </c>
       <c r="N55" s="4" t="s">
@@ -13598,7 +15045,7 @@
       <c r="J56" t="s">
         <v>4</v>
       </c>
-      <c r="M56" s="38"/>
+      <c r="M56" s="40"/>
       <c r="N56" s="7" t="s">
         <v>31</v>
       </c>
@@ -13697,7 +15144,7 @@
       <c r="J57">
         <v>1418</v>
       </c>
-      <c r="M57" s="37" t="s">
+      <c r="M57" s="39" t="s">
         <v>44</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -13771,7 +15218,7 @@
       </c>
     </row>
     <row r="58" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="M58" s="38"/>
+      <c r="M58" s="40"/>
       <c r="N58" s="7" t="s">
         <v>31</v>
       </c>
@@ -14351,7 +15798,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="39" t="s">
+      <c r="A107" s="41" t="s">
         <v>35</v>
       </c>
       <c r="B107" s="24" t="s">
@@ -14386,7 +15833,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="38"/>
+      <c r="A108" s="40"/>
       <c r="B108" s="25" t="s">
         <v>31</v>
       </c>
@@ -14419,7 +15866,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="37" t="s">
+      <c r="A109" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -14454,7 +15901,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="38"/>
+      <c r="A110" s="40"/>
       <c r="B110" s="7" t="s">
         <v>31</v>
       </c>
@@ -14487,7 +15934,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -14522,7 +15969,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="38"/>
+      <c r="A112" s="40"/>
       <c r="B112" s="7" t="s">
         <v>31</v>
       </c>
@@ -14555,7 +16002,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A113" s="37" t="s">
+      <c r="A113" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -14590,7 +16037,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="38"/>
+      <c r="A114" s="40"/>
       <c r="B114" s="7" t="s">
         <v>31</v>
       </c>
@@ -14623,7 +16070,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A115" s="37" t="s">
+      <c r="A115" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -14658,7 +16105,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="38"/>
+      <c r="A116" s="40"/>
       <c r="B116" s="7" t="s">
         <v>31</v>
       </c>
@@ -14691,7 +16138,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A117" s="37" t="s">
+      <c r="A117" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -14726,7 +16173,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A118" s="38"/>
+      <c r="A118" s="40"/>
       <c r="B118" s="7" t="s">
         <v>31</v>
       </c>
@@ -14759,7 +16206,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A119" s="37" t="s">
+      <c r="A119" s="39" t="s">
         <v>41</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -14794,7 +16241,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="38"/>
+      <c r="A120" s="40"/>
       <c r="B120" s="7" t="s">
         <v>31</v>
       </c>
@@ -14827,7 +16274,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="39" t="s">
         <v>42</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -14862,7 +16309,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="38"/>
+      <c r="A122" s="40"/>
       <c r="B122" s="7" t="s">
         <v>31</v>
       </c>
@@ -14895,7 +16342,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A123" s="37" t="s">
+      <c r="A123" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -14930,7 +16377,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="38"/>
+      <c r="A124" s="40"/>
       <c r="B124" s="7" t="s">
         <v>31</v>
       </c>
@@ -14963,7 +16410,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="39" t="s">
         <v>44</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -14998,7 +16445,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="38"/>
+      <c r="A126" s="40"/>
       <c r="B126" s="7" t="s">
         <v>31</v>
       </c>
@@ -15032,6 +16479,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A123:A124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="M41:M42"/>
     <mergeCell ref="M43:M44"/>
@@ -15046,24 +16509,1444 @@
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="M32:M33"/>
     <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M57:M58"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="M51:M52"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="M55:M56"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A123:A124"/>
-    <mergeCell ref="A125:A126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="M34:AH58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="M60" sqref="M60:T60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="22.7265625" customWidth="1"/>
+    <col min="18" max="18" width="23.453125" customWidth="1"/>
+    <col min="20" max="20" width="25.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="34" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="Z34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="Z35" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="Y36" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z36" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA36" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB36" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC36" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD36" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE36" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF36" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG36" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH36" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="Y37" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z37" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA37" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB37" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC37" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD37" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE37" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF37" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG37" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH37" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S38" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="T38" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="X38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M39" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z39,1)," °C")</f>
+        <v>10.6 °C</v>
+      </c>
+      <c r="P39" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA39,1)," °C ; ", ROUND(AB39,1)," °C]")</f>
+        <v>[7.6 °C ; 13.3 °C]</v>
+      </c>
+      <c r="Q39" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC39,1)," °C")</f>
+        <v>16.9 °C</v>
+      </c>
+      <c r="R39" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD39,1)," °C ; ", ROUND(AE39,1)," °C]")</f>
+        <v>[15.5 °C ; 18.2 °C]</v>
+      </c>
+      <c r="S39" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF39,1)," °C")</f>
+        <v>22.6 °C</v>
+      </c>
+      <c r="T39" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG39,1)," °C ; ", ROUND(AH39,1)," °C]")</f>
+        <v>[20.8 °C ; 24.4 °C]</v>
+      </c>
+      <c r="X39" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z39">
+        <v>10.562842</v>
+      </c>
+      <c r="AA39">
+        <v>7.6159999999999997</v>
+      </c>
+      <c r="AB39">
+        <v>13.305999999999999</v>
+      </c>
+      <c r="AC39">
+        <v>16.933500651510901</v>
+      </c>
+      <c r="AD39">
+        <v>15.5168</v>
+      </c>
+      <c r="AE39">
+        <v>18.204374999999999</v>
+      </c>
+      <c r="AF39">
+        <v>22.609960000000001</v>
+      </c>
+      <c r="AG39">
+        <v>20.838000000000001</v>
+      </c>
+      <c r="AH39">
+        <v>24.413</v>
+      </c>
+    </row>
+    <row r="40" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M40" s="40"/>
+      <c r="N40" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z40,1)," °C")</f>
+        <v>0.5 °C</v>
+      </c>
+      <c r="P40" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA40,1)," °C ; ", ROUND(AB40,1)," °C]")</f>
+        <v>[-3 °C ; 3.3 °C]</v>
+      </c>
+      <c r="Q40" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC40,1)," °C")</f>
+        <v>10 °C</v>
+      </c>
+      <c r="R40" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD40,1)," °C ; ", ROUND(AE40,1)," °C]")</f>
+        <v>[7.9 °C ; 12.2 °C]</v>
+      </c>
+      <c r="S40" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF40,1)," °C")</f>
+        <v>20.5 °C</v>
+      </c>
+      <c r="T40" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG40,1)," °C ; ", ROUND(AH40,1)," °C]")</f>
+        <v>[16.9 °C ; 23.8 °C]</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z40">
+        <v>0.51416200000000001</v>
+      </c>
+      <c r="AA40">
+        <v>-2.9849999999999999</v>
+      </c>
+      <c r="AB40">
+        <v>3.3220000000000001</v>
+      </c>
+      <c r="AC40">
+        <v>10.0344365</v>
+      </c>
+      <c r="AD40">
+        <v>7.9480000000000004</v>
+      </c>
+      <c r="AE40">
+        <v>12.2127</v>
+      </c>
+      <c r="AF40">
+        <v>20.523980000000002</v>
+      </c>
+      <c r="AG40">
+        <v>16.8705</v>
+      </c>
+      <c r="AH40">
+        <v>23.808</v>
+      </c>
+    </row>
+    <row r="41" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M41" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z41,1)," °C")</f>
+        <v>15.7 °C</v>
+      </c>
+      <c r="P41" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA41,1)," °C ; ", ROUND(AB41,1)," °C]")</f>
+        <v>[12.1 °C ; 18.9 °C]</v>
+      </c>
+      <c r="Q41" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC41,1)," °C")</f>
+        <v>23 °C</v>
+      </c>
+      <c r="R41" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD41,1)," °C ; ", ROUND(AE41,1)," °C]")</f>
+        <v>[21.5 °C ; 24.5 °C]</v>
+      </c>
+      <c r="S41" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF41,1)," °C")</f>
+        <v>29.7 °C</v>
+      </c>
+      <c r="T41" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG41,1)," °C ; ", ROUND(AH41,1)," °C]")</f>
+        <v>[27.5 °C ; 31.9 °C]</v>
+      </c>
+      <c r="X41" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z41">
+        <v>15.749114000000001</v>
+      </c>
+      <c r="AA41">
+        <v>12.114000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>18.948</v>
+      </c>
+      <c r="AC41">
+        <v>22.980778399999998</v>
+      </c>
+      <c r="AD41">
+        <v>21.504799999999999</v>
+      </c>
+      <c r="AE41">
+        <v>24.4864</v>
+      </c>
+      <c r="AF41">
+        <v>29.663885000000001</v>
+      </c>
+      <c r="AG41">
+        <v>27.463000000000001</v>
+      </c>
+      <c r="AH41">
+        <v>31.928000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M42" s="40"/>
+      <c r="N42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z42,1)," °C")</f>
+        <v>4 °C</v>
+      </c>
+      <c r="P42" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA42,1)," °C ; ", ROUND(AB42,1)," °C]")</f>
+        <v>[0.5 °C ; 7.2 °C]</v>
+      </c>
+      <c r="Q42" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC42,1)," °C")</f>
+        <v>15.2 °C</v>
+      </c>
+      <c r="R42" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD42,1)," °C ; ", ROUND(AE42,1)," °C]")</f>
+        <v>[12.7 °C ; 17.7 °C]</v>
+      </c>
+      <c r="S42" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF42,1)," °C")</f>
+        <v>27.3 °C</v>
+      </c>
+      <c r="T42" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG42,1)," °C ; ", ROUND(AH42,1)," °C]")</f>
+        <v>[23.4 °C ; 30.8 °C]</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z42">
+        <v>4.010961</v>
+      </c>
+      <c r="AA42">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="AB42">
+        <v>7.23</v>
+      </c>
+      <c r="AC42">
+        <v>15.1813487727891</v>
+      </c>
+      <c r="AD42">
+        <v>12.685</v>
+      </c>
+      <c r="AE42">
+        <v>17.678000000000001</v>
+      </c>
+      <c r="AF42">
+        <v>27.288423000000002</v>
+      </c>
+      <c r="AG42">
+        <v>23.387</v>
+      </c>
+      <c r="AH42">
+        <v>30.827000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M43" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z43,1)," %")</f>
+        <v>55.5 %</v>
+      </c>
+      <c r="P43" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA43,1)," % ; ", ROUND(AB43,1)," %]")</f>
+        <v>[49.8 % ; 60.8 %]</v>
+      </c>
+      <c r="Q43" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC43,1)," %")</f>
+        <v>71.2 %</v>
+      </c>
+      <c r="R43" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD43,1)," % ; ", ROUND(AE43,1)," %]")</f>
+        <v>[67.7 % ; 74.6 %]</v>
+      </c>
+      <c r="S43" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF43,1)," %")</f>
+        <v>86.6 %</v>
+      </c>
+      <c r="T43" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG43,1)," % ; ", ROUND(AH43,1)," %]")</f>
+        <v>[81.1 % ; 93.1 %]</v>
+      </c>
+      <c r="X43" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z43">
+        <v>55.461500000000001</v>
+      </c>
+      <c r="AA43">
+        <v>49.8</v>
+      </c>
+      <c r="AB43">
+        <v>60.8</v>
+      </c>
+      <c r="AC43">
+        <v>71.184520000000006</v>
+      </c>
+      <c r="AD43">
+        <v>67.66</v>
+      </c>
+      <c r="AE43">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="AF43">
+        <v>86.557699999999997</v>
+      </c>
+      <c r="AG43">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="AH43">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="44" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M44" s="40"/>
+      <c r="N44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z44,1)," %")</f>
+        <v>50.6 %</v>
+      </c>
+      <c r="P44" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA44,1)," % ; ", ROUND(AB44,1)," %]")</f>
+        <v>[43.9 % ; 56.8 %]</v>
+      </c>
+      <c r="Q44" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC44,1)," %")</f>
+        <v>69.5 %</v>
+      </c>
+      <c r="R44" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD44,1)," % ; ", ROUND(AE44,1)," %]")</f>
+        <v>[65.2 % ; 73.8 %]</v>
+      </c>
+      <c r="S44" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF44,1)," %")</f>
+        <v>90.1 %</v>
+      </c>
+      <c r="T44" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG44,1)," °C ; ", ROUND(AH44,1)," °C]")</f>
+        <v>[82.1 °C ; 98.2 °C]</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z44">
+        <v>50.551000000000002</v>
+      </c>
+      <c r="AA44">
+        <v>43.9</v>
+      </c>
+      <c r="AB44">
+        <v>56.8</v>
+      </c>
+      <c r="AC44">
+        <v>69.534508979591806</v>
+      </c>
+      <c r="AD44">
+        <v>65.22</v>
+      </c>
+      <c r="AE44">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="AF44">
+        <v>90.077600000000004</v>
+      </c>
+      <c r="AG44">
+        <v>82.1</v>
+      </c>
+      <c r="AH44">
+        <v>98.2</v>
+      </c>
+    </row>
+    <row r="45" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M45" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z45,1)," °C")</f>
+        <v>4.6 °C</v>
+      </c>
+      <c r="P45" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA45,1)," °C ; ", ROUND(AB45,1)," °C]")</f>
+        <v>[1 °C ; 7.4 °C]</v>
+      </c>
+      <c r="Q45" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC45,1)," °C")</f>
+        <v>10.5 °C</v>
+      </c>
+      <c r="R45" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD45,1)," °C ; ", ROUND(AE45,1)," °C]")</f>
+        <v>[9.3 °C ; 11.8 °C]</v>
+      </c>
+      <c r="S45" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF45,1)," °C")</f>
+        <v>15.4 °C</v>
+      </c>
+      <c r="T45" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG45,1)," °C ; ", ROUND(AH45,1)," °C]")</f>
+        <v>[14.3 °C ; 16.3 °C]</v>
+      </c>
+      <c r="X45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z45">
+        <v>4.5578750000000001</v>
+      </c>
+      <c r="AA45">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>7.4169999999999998</v>
+      </c>
+      <c r="AC45">
+        <v>10.537367</v>
+      </c>
+      <c r="AD45">
+        <v>9.2782</v>
+      </c>
+      <c r="AE45">
+        <v>11.756600000000001</v>
+      </c>
+      <c r="AF45">
+        <v>15.355528</v>
+      </c>
+      <c r="AG45">
+        <v>14.257</v>
+      </c>
+      <c r="AH45">
+        <v>16.286999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M46" s="40"/>
+      <c r="N46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z46,1)," °C")</f>
+        <v>-5.5 °C</v>
+      </c>
+      <c r="P46" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA46,1)," °C ; ", ROUND(AB46,1)," °C]")</f>
+        <v>[-9.3 °C ; -2.4 °C]</v>
+      </c>
+      <c r="Q46" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC46,1)," °C")</f>
+        <v>3.5 °C</v>
+      </c>
+      <c r="R46" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD46,1)," °C ; ", ROUND(AE46,1)," °C]")</f>
+        <v>[1.4 °C ; 5.4 °C]</v>
+      </c>
+      <c r="S46" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF46,1)," °C")</f>
+        <v>12.7 °C</v>
+      </c>
+      <c r="T46" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG46,1)," °C ; ", ROUND(AH46,1)," °C]")</f>
+        <v>[10 °C ; 15.1 °C]</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z46">
+        <v>-5.5188170000000003</v>
+      </c>
+      <c r="AA46">
+        <v>-9.27</v>
+      </c>
+      <c r="AB46">
+        <v>-2.419</v>
+      </c>
+      <c r="AC46">
+        <v>3.4815455428571398</v>
+      </c>
+      <c r="AD46">
+        <v>1.4134</v>
+      </c>
+      <c r="AE46">
+        <v>5.4004000000000003</v>
+      </c>
+      <c r="AF46">
+        <v>12.660202</v>
+      </c>
+      <c r="AG46">
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="AH46">
+        <v>15.066000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M47" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z47,1)," hPa")</f>
+        <v>1010.9 hPa</v>
+      </c>
+      <c r="P47" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA47,1)," hPa ; ", ROUND(AB47,1)," hPa]")</f>
+        <v>[1006.7 hPa ; 1013.6 hPa]</v>
+      </c>
+      <c r="Q47" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC47,1)," hPa")</f>
+        <v>1016.7 hPa</v>
+      </c>
+      <c r="R47" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD47,1)," hPa ; ", ROUND(AE47,1)," hPa]")</f>
+        <v>[1014.8 hPa ; 1018.4 hPa]</v>
+      </c>
+      <c r="S47" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF47,1)," hPa")</f>
+        <v>1022.7 hPa</v>
+      </c>
+      <c r="T47" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG47,1)," hPa ; ", ROUND(AH47,1)," hPa]")</f>
+        <v>[1019.7 hPa ; 1025.8 hPa]</v>
+      </c>
+      <c r="X47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z47">
+        <v>1010.93213</v>
+      </c>
+      <c r="AA47">
+        <v>1006.74</v>
+      </c>
+      <c r="AB47">
+        <v>1013.63</v>
+      </c>
+      <c r="AC47">
+        <v>1016.66566298148</v>
+      </c>
+      <c r="AD47">
+        <v>1014.77567567568</v>
+      </c>
+      <c r="AE47">
+        <v>1018.42</v>
+      </c>
+      <c r="AF47">
+        <v>1022.6541099999999</v>
+      </c>
+      <c r="AG47">
+        <v>1019.71</v>
+      </c>
+      <c r="AH47">
+        <v>1025.82</v>
+      </c>
+    </row>
+    <row r="48" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M48" s="40"/>
+      <c r="N48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z48,1)," hPa")</f>
+        <v>1008.6 hPa</v>
+      </c>
+      <c r="P48" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA48,1)," hPa ; ", ROUND(AB48,1)," hPa]")</f>
+        <v>[1002.5 hPa ; 1013.2 hPa]</v>
+      </c>
+      <c r="Q48" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC48,1)," hPa")</f>
+        <v>1018.1 hPa</v>
+      </c>
+      <c r="R48" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD48,1)," hPa ; ", ROUND(AE48,1)," hPa]")</f>
+        <v>[1015.8 hPa ; 1020.4 hPa]</v>
+      </c>
+      <c r="S48" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF48,1)," hPa")</f>
+        <v>1027.3 hPa</v>
+      </c>
+      <c r="T48" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG48,1)," hPa ; ", ROUND(AH48,1)," hPa]")</f>
+        <v>[1023.2 hPa ; 1031.7 hPa]</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z48">
+        <v>1008.64829</v>
+      </c>
+      <c r="AA48">
+        <v>1002.54</v>
+      </c>
+      <c r="AB48">
+        <v>1013.22</v>
+      </c>
+      <c r="AC48">
+        <v>1018.07975328329</v>
+      </c>
+      <c r="AD48">
+        <v>1015.76046511628</v>
+      </c>
+      <c r="AE48">
+        <v>1020.37826086957</v>
+      </c>
+      <c r="AF48">
+        <v>1027.3495800000001</v>
+      </c>
+      <c r="AG48">
+        <v>1023.18</v>
+      </c>
+      <c r="AH48">
+        <v>1031.6600000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M49" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z49,1)," m/s")</f>
+        <v>1.1 m/s</v>
+      </c>
+      <c r="P49" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA49,1)," m/s ; ", ROUND(AB49,1)," m/s]")</f>
+        <v>[1 m/s ; 1.3 m/s]</v>
+      </c>
+      <c r="Q49" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC49,1)," m/s")</f>
+        <v>2.2 m/s</v>
+      </c>
+      <c r="R49" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD49,1)," m/s ; ", ROUND(AE49,1)," m/s]")</f>
+        <v>[1.9 m/s ; 2.5 m/s]</v>
+      </c>
+      <c r="S49" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF49,1)," m/s")</f>
+        <v>3.4 m/s</v>
+      </c>
+      <c r="T49" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG49,1)," m/s ; ", ROUND(AH49,1)," m/s]")</f>
+        <v>[2.8 m/s ; 4.2 m/s]</v>
+      </c>
+      <c r="X49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z49">
+        <v>1.1410499999999999</v>
+      </c>
+      <c r="AA49">
+        <v>0.998</v>
+      </c>
+      <c r="AB49">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="AC49">
+        <v>2.1526917999999999</v>
+      </c>
+      <c r="AD49">
+        <v>1.8817999999999999</v>
+      </c>
+      <c r="AE49">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="AF49">
+        <v>3.4174549999999999</v>
+      </c>
+      <c r="AG49">
+        <v>2.8250000000000002</v>
+      </c>
+      <c r="AH49">
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M50" s="40"/>
+      <c r="N50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z50,1)," m/s")</f>
+        <v>1 m/s</v>
+      </c>
+      <c r="P50" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA50,1)," m/s ; ", ROUND(AB50,1)," m/s]")</f>
+        <v>[0.9 m/s ; 1.2 m/s]</v>
+      </c>
+      <c r="Q50" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC50,1)," m/s")</f>
+        <v>2.1 m/s</v>
+      </c>
+      <c r="R50" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD50,1)," m/s ; ", ROUND(AE50,1)," m/s]")</f>
+        <v>[1.8 m/s ; 2.4 m/s]</v>
+      </c>
+      <c r="S50" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF50,1)," m/s")</f>
+        <v>3.5 m/s</v>
+      </c>
+      <c r="T50" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG50,1)," m/s ; ", ROUND(AH50,1)," m/s]")</f>
+        <v>[2.7 m/s ; 4.5 m/s]</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z50">
+        <v>1.0294380000000001</v>
+      </c>
+      <c r="AA50">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="AB50">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="AC50">
+        <v>2.0605193224489802</v>
+      </c>
+      <c r="AD50">
+        <v>1.7574000000000001</v>
+      </c>
+      <c r="AE50">
+        <v>2.4144000000000001</v>
+      </c>
+      <c r="AF50">
+        <v>3.513944</v>
+      </c>
+      <c r="AG50">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="AH50">
+        <v>4.5430000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M51" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z51,1)," km")</f>
+        <v>9.6 km</v>
+      </c>
+      <c r="P51" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA51,1)," km ; ", ROUND(AB51,1)," km]")</f>
+        <v>[8.9 km ; 9.9 km]</v>
+      </c>
+      <c r="Q51" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC51,1)," km")</f>
+        <v>11.9 km</v>
+      </c>
+      <c r="R51" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD51,1)," km ; ", ROUND(AE51,1)," km]")</f>
+        <v>[11 km ; 12.7 km]</v>
+      </c>
+      <c r="S51" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF51,1)," km")</f>
+        <v>16.1 km</v>
+      </c>
+      <c r="T51" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG51,1)," km ; ", ROUND(AH51,1)," km]")</f>
+        <v>[16.1 km ; 16.1 km]</v>
+      </c>
+      <c r="X51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z51">
+        <v>9.5632974999999991</v>
+      </c>
+      <c r="AA51">
+        <v>8.8702000000000005</v>
+      </c>
+      <c r="AB51">
+        <v>9.9345999999999997</v>
+      </c>
+      <c r="AC51">
+        <v>11.8644831590612</v>
+      </c>
+      <c r="AD51">
+        <v>11.0457</v>
+      </c>
+      <c r="AE51">
+        <v>12.723100000000001</v>
+      </c>
+      <c r="AF51">
+        <v>16.088196799999999</v>
+      </c>
+      <c r="AG51">
+        <v>16.0748</v>
+      </c>
+      <c r="AH51">
+        <v>16.093</v>
+      </c>
+    </row>
+    <row r="52" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M52" s="40"/>
+      <c r="N52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O52" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z52,1)," km")</f>
+        <v>8.4 km</v>
+      </c>
+      <c r="P52" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA52,1)," km ; ", ROUND(AB52,1)," km]")</f>
+        <v>[6.1 km ; 9.7 km]</v>
+      </c>
+      <c r="Q52" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC52,2)," km")</f>
+        <v>12.21 km</v>
+      </c>
+      <c r="R52" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD52,1)," km ; ", ROUND(AE52,1)," km]")</f>
+        <v>[11.2 km ; 13.2 km]</v>
+      </c>
+      <c r="S52" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF52,1)," km")</f>
+        <v>16.1 km</v>
+      </c>
+      <c r="T52" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG52,1)," km ; ", ROUND(AH52,1)," km]")</f>
+        <v>[16.1 km ; 16.1 km]</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z52">
+        <v>8.4002145000000006</v>
+      </c>
+      <c r="AA52">
+        <v>6.1234000000000002</v>
+      </c>
+      <c r="AB52">
+        <v>9.7439999999999998</v>
+      </c>
+      <c r="AC52">
+        <v>12.2090342233148</v>
+      </c>
+      <c r="AD52">
+        <v>11.188874999999999</v>
+      </c>
+      <c r="AE52">
+        <v>13.237022222222199</v>
+      </c>
+      <c r="AF52">
+        <v>16.0926467</v>
+      </c>
+      <c r="AG52">
+        <v>16.093</v>
+      </c>
+      <c r="AH52">
+        <v>16.093</v>
+      </c>
+    </row>
+    <row r="53" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M53" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z53,1),"  %")</f>
+        <v>14.8  %</v>
+      </c>
+      <c r="P53" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA53,1),"  % ; ", ROUND(AB53,1),"  %]")</f>
+        <v>[3.2  % ; 27.6  %]</v>
+      </c>
+      <c r="Q53" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC53,1),"  %")</f>
+        <v>53.9  %</v>
+      </c>
+      <c r="R53" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD53,1),"  % ; ", ROUND(AE53,1),"  %]")</f>
+        <v>[45  % ; 62.5  %]</v>
+      </c>
+      <c r="S53" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF53,1),"  %")</f>
+        <v>86.5  %</v>
+      </c>
+      <c r="T53" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG53,1),"  % ; ", ROUND(AH53,1),"  %]")</f>
+        <v>[78.8  % ; 93.6  %]</v>
+      </c>
+      <c r="X53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z53">
+        <v>14.8078</v>
+      </c>
+      <c r="AA53">
+        <v>3.2</v>
+      </c>
+      <c r="AB53">
+        <v>27.6</v>
+      </c>
+      <c r="AC53">
+        <v>53.912891391340501</v>
+      </c>
+      <c r="AD53">
+        <v>44.955555555555598</v>
+      </c>
+      <c r="AE53">
+        <v>62.512820512820497</v>
+      </c>
+      <c r="AF53">
+        <v>86.489900000000006</v>
+      </c>
+      <c r="AG53">
+        <v>78.8</v>
+      </c>
+      <c r="AH53">
+        <v>93.6</v>
+      </c>
+    </row>
+    <row r="54" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M54" s="40"/>
+      <c r="N54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z54,1),"  %")</f>
+        <v>16.2  %</v>
+      </c>
+      <c r="P54" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA54,1),"  % ; ", ROUND(AB54,1),"  %]")</f>
+        <v>[3  % ; 32.6  %]</v>
+      </c>
+      <c r="Q54" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC54,1),"  %")</f>
+        <v>60.1  %</v>
+      </c>
+      <c r="R54" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD54,1),"  % ; ", ROUND(AE54,1),"  %]")</f>
+        <v>[51.2  % ; 68.8  %]</v>
+      </c>
+      <c r="S54" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF54,1),"  %")</f>
+        <v>93.5  %</v>
+      </c>
+      <c r="T54" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG54,1),"  % ; ", ROUND(AH54,1),"  %]")</f>
+        <v>[86.6  % ; 98  %]</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z54">
+        <v>16.2288</v>
+      </c>
+      <c r="AA54">
+        <v>3</v>
+      </c>
+      <c r="AB54">
+        <v>32.6</v>
+      </c>
+      <c r="AC54">
+        <v>60.143206010555303</v>
+      </c>
+      <c r="AD54">
+        <v>51.159090909090899</v>
+      </c>
+      <c r="AE54">
+        <v>68.755555555555603</v>
+      </c>
+      <c r="AF54">
+        <v>93.508399999999995</v>
+      </c>
+      <c r="AG54">
+        <v>86.6</v>
+      </c>
+      <c r="AH54">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M55" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z55,1)," m/s")</f>
+        <v>2.5 m/s</v>
+      </c>
+      <c r="P55" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA55,1)," m/s ; ", ROUND(AB55,1)," m/s]")</f>
+        <v>[2 m/s ; 3.2 m/s]</v>
+      </c>
+      <c r="Q55" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC55,1)," m/s")</f>
+        <v>5.3 m/s</v>
+      </c>
+      <c r="R55" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD55,1)," m/s ; ", ROUND(AE55,1)," m/s]")</f>
+        <v>[4.3 m/s ; 6.3 m/s]</v>
+      </c>
+      <c r="S55" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF55,1)," m/s")</f>
+        <v>9 m/s</v>
+      </c>
+      <c r="T55" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG55,1)," m/s ; ", ROUND(AH55,1)," m/s]")</f>
+        <v>[6.7 m/s ; 12.2 m/s]</v>
+      </c>
+      <c r="X55" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z55">
+        <v>2.505722</v>
+      </c>
+      <c r="AA55">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="AB55">
+        <v>3.1909999999999998</v>
+      </c>
+      <c r="AC55">
+        <v>5.3305375120287</v>
+      </c>
+      <c r="AD55">
+        <v>4.2853124999999999</v>
+      </c>
+      <c r="AE55">
+        <v>6.3471875000000004</v>
+      </c>
+      <c r="AF55">
+        <v>8.9763789999999997</v>
+      </c>
+      <c r="AG55">
+        <v>6.6829999999999998</v>
+      </c>
+      <c r="AH55">
+        <v>12.218</v>
+      </c>
+    </row>
+    <row r="56" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M56" s="40"/>
+      <c r="N56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z56,1)," m/s")</f>
+        <v>2.4 m/s</v>
+      </c>
+      <c r="P56" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA56,1)," m/s ; ", ROUND(AB56,1)," m/s]")</f>
+        <v>[2 m/s ; 2.9 m/s]</v>
+      </c>
+      <c r="Q56" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC56,1)," m/s")</f>
+        <v>5.9 m/s</v>
+      </c>
+      <c r="R56" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD56,1)," m/s ; ", ROUND(AE56,1)," m/s]")</f>
+        <v>[4.9 m/s ; 7.1 m/s]</v>
+      </c>
+      <c r="S56" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF56,1)," m/s")</f>
+        <v>11.1 m/s</v>
+      </c>
+      <c r="T56" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG56,1)," m/s ; ", ROUND(AH56,1)," m/s]")</f>
+        <v>[8.2 m/s ; 14.1 m/s]</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z56">
+        <v>2.3836710000000001</v>
+      </c>
+      <c r="AA56">
+        <v>1.958</v>
+      </c>
+      <c r="AB56">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="AC56">
+        <v>5.9190645847879004</v>
+      </c>
+      <c r="AD56">
+        <v>4.8973333333333304</v>
+      </c>
+      <c r="AE56">
+        <v>7.0628888888888897</v>
+      </c>
+      <c r="AF56">
+        <v>11.070800999999999</v>
+      </c>
+      <c r="AG56">
+        <v>8.1660000000000004</v>
+      </c>
+      <c r="AH56">
+        <v>14.085000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="13:34" x14ac:dyDescent="0.35">
+      <c r="M57" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="26" t="str">
+        <f>CONCATENATE(ROUND(Z57,1)," ")</f>
+        <v xml:space="preserve">2.8 </v>
+      </c>
+      <c r="P57" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AA57,1),"  ; ", ROUND(AB57,1)," ]")</f>
+        <v>[0  ; 4 ]</v>
+      </c>
+      <c r="Q57" s="31" t="str">
+        <f>CONCATENATE(ROUND(AC57,1)," ")</f>
+        <v xml:space="preserve">5.9 </v>
+      </c>
+      <c r="R57" s="28" t="str">
+        <f>CONCATENATE("[",ROUND(AD57,1),"  ; ", ROUND(AE57,1)," ]")</f>
+        <v>[5.2  ; 6.6 ]</v>
+      </c>
+      <c r="S57" s="26" t="str">
+        <f>CONCATENATE(ROUND(AF57,1)," ")</f>
+        <v xml:space="preserve">8.7 </v>
+      </c>
+      <c r="T57" s="6" t="str">
+        <f>CONCATENATE("[",ROUND(AG57,1),"  ; ", ROUND(AH57,1)," ]")</f>
+        <v>[8  ; 9 ]</v>
+      </c>
+      <c r="X57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z57">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>4</v>
+      </c>
+      <c r="AC57">
+        <v>5.9214814164262899</v>
+      </c>
+      <c r="AD57">
+        <v>5.24444444444444</v>
+      </c>
+      <c r="AE57">
+        <v>6.58</v>
+      </c>
+      <c r="AF57">
+        <v>8.6753999999999998</v>
+      </c>
+      <c r="AG57">
+        <v>8</v>
+      </c>
+      <c r="AH57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="13:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M58" s="40"/>
+      <c r="N58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O58" s="27" t="str">
+        <f>CONCATENATE(ROUND(Z58,1)," ")</f>
+        <v xml:space="preserve">0.8 </v>
+      </c>
+      <c r="P58" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AA58,1),"  ; ", ROUND(AB58,1)," ]")</f>
+        <v>[0  ; 1 ]</v>
+      </c>
+      <c r="Q58" s="32" t="str">
+        <f>CONCATENATE(ROUND(AC58,1)," ")</f>
+        <v xml:space="preserve">3.4 </v>
+      </c>
+      <c r="R58" s="25" t="str">
+        <f>CONCATENATE("[",ROUND(AD58,1),"  ; ", ROUND(AE58,1)," ]")</f>
+        <v>[2.7  ; 4 ]</v>
+      </c>
+      <c r="S58" s="27" t="str">
+        <f>CONCATENATE(ROUND(AF58,1)," ")</f>
+        <v xml:space="preserve">6.9 </v>
+      </c>
+      <c r="T58" s="15" t="str">
+        <f>CONCATENATE("[",ROUND(AG58,1),"  ; ", ROUND(AH58,1)," ]")</f>
+        <v>[5.2  ; 8.2 ]</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z58">
+        <v>0.81310000000000004</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AC58">
+        <v>3.3738436420621301</v>
+      </c>
+      <c r="AD58">
+        <v>2.71428571428571</v>
+      </c>
+      <c r="AE58">
+        <v>4</v>
+      </c>
+      <c r="AF58">
+        <v>6.9436</v>
+      </c>
+      <c r="AG58">
+        <v>5.2</v>
+      </c>
+      <c r="AH58">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="M51:M52"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="M55:M56"/>
+    <mergeCell ref="M57:M58"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="M47:M48"/>
+    <mergeCell ref="M49:M50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>